--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1202800.146024606</v>
+        <v>1199434.515067043</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5798343.04408059</v>
+        <v>5798343.044080595</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7868849.300187755</v>
+        <v>7868849.300187754</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,58 +673,58 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
+        <v>9.031127956876844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.177487233474767</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>11.20861519035162</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,64 +749,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.20861519035162</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="S3" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="T3" t="n">
-        <v>11.20861519035161</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,70 +819,70 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>11.20861519035162</v>
       </c>
-      <c r="F4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.177487233474765</v>
+        <v>12.725494085322</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,64 +986,64 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.20861519035161</v>
+      </c>
+      <c r="I6" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="G6" t="n">
-        <v>11.20861519035161</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,20 +1065,20 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1150,7 +1150,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1183,13 +1183,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>71.33883017348273</v>
       </c>
       <c r="U8" t="n">
-        <v>6.226274543691494</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>31.54714681450111</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>131.6822221322222</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.9609751381512</v>
+        <v>189.9243222039805</v>
       </c>
       <c r="U10" t="n">
-        <v>178.2067763137422</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14.77698463924977</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.482606503135</v>
       </c>
       <c r="H11" t="n">
-        <v>304.9834245910408</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>77.2543723930784</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.071320553448</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1435,10 +1435,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>352.3195863253829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0306877276382</v>
+        <v>118.0306877276375</v>
       </c>
       <c r="H12" t="n">
-        <v>79.41256718839144</v>
+        <v>79.41256718839159</v>
       </c>
       <c r="I12" t="n">
         <v>20.36716931421247</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>165.8768999471553</v>
       </c>
       <c r="H13" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>188.6827055666165</v>
       </c>
       <c r="T13" t="n">
-        <v>230.3939676337664</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>150.6927570108794</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>104.2967554204495</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>316.3775579563016</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.9834245910408</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>77.2543723930784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>225.7914642478574</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8768999471553</v>
+        <v>2.494351854045138</v>
       </c>
       <c r="H16" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.8745613382558</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.31305334873036</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>188.6827055666165</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>407.482606503135</v>
+        <v>136.0175621288373</v>
       </c>
       <c r="H17" t="n">
         <v>304.9834245910408</v>
       </c>
       <c r="I17" t="n">
-        <v>77.2543723930784</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>103.1822031088725</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.8922415646371</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>63.7482728101683</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.5345952183089</v>
+        <v>50.86971752516423</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.482606503135</v>
       </c>
       <c r="H20" t="n">
-        <v>304.9834245910408</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.48740161020325</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.25146084128</v>
       </c>
       <c r="T22" t="n">
         <v>230.3939676337664</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>184.8964121041382</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>330.0414840465094</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2371,7 +2371,7 @@
         <v>129.5614868812183</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U23" t="n">
         <v>253.071320553448</v>
@@ -2380,7 +2380,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.8616080755277</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>188.6827055666165</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>75.94399932289184</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>343.063808143242</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.482606503135</v>
+        <v>146.0790902007294</v>
       </c>
       <c r="H26" t="n">
         <v>304.9834245910408</v>
       </c>
       <c r="I26" t="n">
-        <v>77.2543723930784</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>214.4869437524227</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>188.6827055666165</v>
@@ -2769,16 +2769,16 @@
         <v>230.3939676337664</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>158.9889333121479</v>
+        <v>89.86709303862015</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>365.8089215353392</v>
       </c>
       <c r="G29" t="n">
-        <v>16.51760331951246</v>
+        <v>407.482606503135</v>
       </c>
       <c r="H29" t="n">
         <v>304.9834245910408</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.071320553448</v>
@@ -2952,19 +2952,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>147.4916131680741</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>74.82620494588446</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8768999471553</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>188.6827055666165</v>
       </c>
       <c r="T31" t="n">
-        <v>230.3939676337664</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.9834245910408</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>105.6660108784788</v>
+        <v>183.3153937221027</v>
       </c>
       <c r="U32" t="n">
-        <v>253.071320553448</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H34" t="n">
         <v>147.7480208074214</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.8745613382558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>188.6827055666165</v>
@@ -3243,19 +3243,19 @@
         <v>230.3939676337664</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5465158360966</v>
+        <v>149.1547612871542</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>177.9945278396281</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.482606503135</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.071320553448</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>218.4916887199273</v>
       </c>
       <c r="Y35" t="n">
-        <v>113.9558845191899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I37" t="n">
         <v>110.8745613382558</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>93.19676614179879</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>54.51294065108607</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>362.7005243876331</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.482606503135</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>77.2543723930784</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.071320553448</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>39.58998941168659</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3641,7 +3641,7 @@
         <v>207.9080032025383</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126443</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -3678,7 +3678,7 @@
         <v>165.8768999471553</v>
       </c>
       <c r="H40" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.8745613382558</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>91.42963449565048</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>188.6827055666165</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>176.1250631318068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>162.8779355400968</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,10 +3757,10 @@
         <v>407.482606503135</v>
       </c>
       <c r="H41" t="n">
-        <v>304.9834245910408</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>77.2543723930784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.071320553448</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>221.5928439135468</v>
       </c>
       <c r="Y41" t="n">
-        <v>232.7436899900905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>79.41256718839144</v>
       </c>
       <c r="I42" t="n">
-        <v>20.36716931421247</v>
+        <v>20.36716931421308</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>124.7294882999224</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.8745613382558</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>91.42963449565048</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>188.6827055666165</v>
       </c>
       <c r="T43" t="n">
-        <v>230.3939676337664</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5465158360966</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>220.4532472296846</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0.6228350715407373</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.071320553448</v>
       </c>
       <c r="V44" t="n">
-        <v>284.2275242701314</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>130.3301713688412</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>158.5306173791579</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.8745613382558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.6827055666165</v>
       </c>
       <c r="T46" t="n">
-        <v>230.3939676337664</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C2" t="n">
-        <v>39.5801428156803</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D2" t="n">
-        <v>39.5801428156803</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E2" t="n">
-        <v>39.5801428156803</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F2" t="n">
-        <v>26.72610838606212</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G2" t="n">
-        <v>13.87207395644394</v>
+        <v>3.217521580840677</v>
       </c>
       <c r="H2" t="n">
-        <v>13.87207395644394</v>
+        <v>3.217521580840677</v>
       </c>
       <c r="I2" t="n">
         <v>1.01803952682576</v>
@@ -4333,22 +4333,22 @@
         <v>13.61627867129454</v>
       </c>
       <c r="K2" t="n">
-        <v>13.61627867129454</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L2" t="n">
-        <v>26.21451781576332</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="M2" t="n">
-        <v>38.81275696023209</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="N2" t="n">
-        <v>38.81275696023209</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O2" t="n">
-        <v>38.81275696023209</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P2" t="n">
-        <v>38.81275696023209</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q2" t="n">
         <v>50.90197634128799</v>
@@ -4357,25 +4357,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W2" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="3">
@@ -4397,10 +4397,10 @@
         <v>13.87207395644394</v>
       </c>
       <c r="F3" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="G3" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H3" t="n">
         <v>1.01803952682576</v>
@@ -4412,19 +4412,19 @@
         <v>13.61627867129454</v>
       </c>
       <c r="K3" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="M3" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N3" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O3" t="n">
-        <v>26.21451781576332</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P3" t="n">
         <v>38.30373719681921</v>
@@ -4433,25 +4433,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R3" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="S3" t="n">
-        <v>25.19390748205163</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="T3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="U3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="V3" t="n">
-        <v>13.87207395644394</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="W3" t="n">
-        <v>13.87207395644394</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="X3" t="n">
-        <v>13.87207395644394</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="Y3" t="n">
         <v>13.87207395644394</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.90197634128799</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="C4" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="D4" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="E4" t="n">
-        <v>39.5801428156803</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="F4" t="n">
-        <v>26.72610838606212</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="G4" t="n">
-        <v>26.72610838606212</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="I4" t="n">
         <v>1.01803952682576</v>
@@ -4494,46 +4494,46 @@
         <v>13.61627867129454</v>
       </c>
       <c r="L4" t="n">
-        <v>25.70549805235044</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="M4" t="n">
-        <v>38.30373719681921</v>
+        <v>34.88154082676826</v>
       </c>
       <c r="N4" t="n">
-        <v>38.30373719681921</v>
+        <v>34.88154082676826</v>
       </c>
       <c r="O4" t="n">
-        <v>38.30373719681921</v>
+        <v>47.47977997123704</v>
       </c>
       <c r="P4" t="n">
-        <v>50.90197634128799</v>
+        <v>47.47977997123704</v>
       </c>
       <c r="Q4" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="S4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="T4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="U4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="V4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="W4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="X4" t="n">
-        <v>50.90197634128799</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.90197634128799</v>
+        <v>26.72610838606212</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C5" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D5" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E5" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F5" t="n">
-        <v>10.14039099841853</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G5" t="n">
         <v>1.01803952682576</v>
@@ -4567,19 +4567,19 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K5" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L5" t="n">
-        <v>13.61627867129454</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="M5" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="N5" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O5" t="n">
         <v>50.90197634128799</v>
@@ -4591,28 +4591,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="S5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="T5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="U5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="V5" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="W5" t="n">
         <v>38.04794191166981</v>
       </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
         <v>38.04794191166981</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Y5" t="n">
         <v>38.04794191166981</v>
-      </c>
-      <c r="U5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="V5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="W5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="X5" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C6" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D6" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E6" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F6" t="n">
         <v>25.19390748205163</v>
       </c>
       <c r="G6" t="n">
+        <v>25.19390748205163</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I6" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K6" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="M6" t="n">
-        <v>13.61627867129454</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="N6" t="n">
-        <v>26.21451781576332</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O6" t="n">
-        <v>38.81275696023209</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="Q6" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R6" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="S6" t="n">
         <v>38.04794191166981</v>
@@ -4691,7 +4691,7 @@
         <v>38.04794191166981</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="C7" t="n">
-        <v>26.72610838606212</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="D7" t="n">
-        <v>26.72610838606212</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="E7" t="n">
-        <v>26.72610838606212</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="F7" t="n">
         <v>26.72610838606212</v>
@@ -4719,31 +4719,31 @@
         <v>13.87207395644394</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="J7" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K7" t="n">
-        <v>9.685062537830703</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L7" t="n">
-        <v>9.685062537830703</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M7" t="n">
-        <v>22.28330168229948</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="N7" t="n">
-        <v>34.88154082676826</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="O7" t="n">
-        <v>34.88154082676826</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P7" t="n">
-        <v>47.47977997123704</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q7" t="n">
         <v>50.90197634128799</v>
@@ -4755,22 +4755,22 @@
         <v>50.90197634128799</v>
       </c>
       <c r="T7" t="n">
-        <v>39.5801428156803</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>875.5618206323776</v>
+        <v>410.994194090658</v>
       </c>
       <c r="C8" t="n">
-        <v>643.2780073615178</v>
+        <v>178.7103808197982</v>
       </c>
       <c r="D8" t="n">
-        <v>643.2780073615178</v>
+        <v>178.7103808197982</v>
       </c>
       <c r="E8" t="n">
-        <v>410.994194090658</v>
+        <v>178.7103808197982</v>
       </c>
       <c r="F8" t="n">
-        <v>398.1401596610398</v>
+        <v>165.85634639018</v>
       </c>
       <c r="G8" t="n">
-        <v>389.017808189447</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="H8" t="n">
         <v>156.7339949185873</v>
@@ -4804,25 +4804,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L8" t="n">
-        <v>464.5211697790654</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M8" t="n">
-        <v>692.182535165835</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N8" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
@@ -4831,25 +4831,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>881.8509868381266</v>
+        <v>643.2780073615178</v>
       </c>
       <c r="U8" t="n">
-        <v>875.5618206323776</v>
+        <v>643.2780073615178</v>
       </c>
       <c r="V8" t="n">
-        <v>875.5618206323776</v>
+        <v>643.2780073615178</v>
       </c>
       <c r="W8" t="n">
-        <v>875.5618206323776</v>
+        <v>643.2780073615178</v>
       </c>
       <c r="X8" t="n">
-        <v>875.5618206323776</v>
+        <v>410.994194090658</v>
       </c>
       <c r="Y8" t="n">
-        <v>875.5618206323776</v>
+        <v>410.994194090658</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.39687801105209</v>
+        <v>138.5600992735836</v>
       </c>
       <c r="C9" t="n">
-        <v>18.39687801105209</v>
+        <v>138.5600992735836</v>
       </c>
       <c r="D9" t="n">
-        <v>18.39687801105209</v>
+        <v>138.5600992735836</v>
       </c>
       <c r="E9" t="n">
-        <v>18.39687801105209</v>
+        <v>138.5600992735836</v>
       </c>
       <c r="F9" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G9" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H9" t="n">
         <v>18.39687801105209</v>
@@ -4886,7 +4886,7 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L9" t="n">
         <v>359.1732256175491</v>
@@ -4895,7 +4895,7 @@
         <v>464.5211697790654</v>
       </c>
       <c r="N9" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O9" t="n">
         <v>692.182535165835</v>
@@ -4907,28 +4907,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T9" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U9" t="n">
-        <v>373.9492252280883</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V9" t="n">
-        <v>151.4092235991553</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="W9" t="n">
-        <v>18.39687801105209</v>
+        <v>479.6635113645333</v>
       </c>
       <c r="X9" t="n">
-        <v>18.39687801105209</v>
+        <v>290.3564337145449</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.39687801105209</v>
+        <v>290.3564337145449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5532425203891</v>
+        <v>542.7931321603129</v>
       </c>
       <c r="C10" t="n">
-        <v>337.3481245863783</v>
+        <v>372.5880142263021</v>
       </c>
       <c r="D10" t="n">
-        <v>337.3481245863783</v>
+        <v>372.5880142263021</v>
       </c>
       <c r="E10" t="n">
-        <v>337.3481245863783</v>
+        <v>217.0292020855046</v>
       </c>
       <c r="F10" t="n">
-        <v>337.3481245863783</v>
+        <v>217.0292020855046</v>
       </c>
       <c r="G10" t="n">
-        <v>337.3481245863783</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H10" t="n">
-        <v>181.8695735478723</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I10" t="n">
         <v>48.77514818495014</v>
@@ -4992,22 +4992,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>687.5600872817448</v>
+        <v>728.0011508516142</v>
       </c>
       <c r="U10" t="n">
-        <v>507.5532425203891</v>
+        <v>728.0011508516142</v>
       </c>
       <c r="V10" t="n">
-        <v>507.5532425203891</v>
+        <v>728.0011508516142</v>
       </c>
       <c r="W10" t="n">
-        <v>507.5532425203891</v>
+        <v>728.0011508516142</v>
       </c>
       <c r="X10" t="n">
-        <v>507.5532425203891</v>
+        <v>728.0011508516142</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5532425203891</v>
+        <v>728.0011508516142</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>824.9418599162537</v>
+        <v>967.1215711834934</v>
       </c>
       <c r="C11" t="n">
-        <v>431.7663584191843</v>
+        <v>967.1215711834934</v>
       </c>
       <c r="D11" t="n">
-        <v>431.7663584191843</v>
+        <v>952.1953240731401</v>
       </c>
       <c r="E11" t="n">
-        <v>431.7663584191843</v>
+        <v>952.1953240731401</v>
       </c>
       <c r="F11" t="n">
-        <v>431.7663584191843</v>
+        <v>535.3008856031179</v>
       </c>
       <c r="G11" t="n">
-        <v>431.7663584191843</v>
+        <v>123.7022931757087</v>
       </c>
       <c r="H11" t="n">
         <v>123.7022931757087</v>
       </c>
       <c r="I11" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J11" t="n">
-        <v>59.27906853099235</v>
+        <v>59.27906853099234</v>
       </c>
       <c r="K11" t="n">
         <v>112.6592078962439</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8681361813054</v>
+        <v>677.7954310321589</v>
       </c>
       <c r="M11" t="n">
-        <v>671.9931780941286</v>
+        <v>798.7553794876084</v>
       </c>
       <c r="N11" t="n">
-        <v>1237.129401230044</v>
+        <v>1363.891602623523</v>
       </c>
       <c r="O11" t="n">
-        <v>1802.265624365959</v>
+        <v>1929.027825759438</v>
       </c>
       <c r="P11" t="n">
-        <v>1873.919719090334</v>
+        <v>2000.681920483814</v>
       </c>
       <c r="Q11" t="n">
         <v>2224.315946407667</v>
@@ -5068,25 +5068,25 @@
         <v>2283.37867933703</v>
       </c>
       <c r="S11" t="n">
-        <v>2283.37867933703</v>
+        <v>2152.508490568123</v>
       </c>
       <c r="T11" t="n">
-        <v>2283.37867933703</v>
+        <v>1935.855012030322</v>
       </c>
       <c r="U11" t="n">
-        <v>2283.37867933703</v>
+        <v>1680.227415511688</v>
       </c>
       <c r="V11" t="n">
-        <v>1941.271870040549</v>
+        <v>1338.120606215206</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.272835008836</v>
+        <v>967.1215711834934</v>
       </c>
       <c r="X11" t="n">
-        <v>1180.820229941893</v>
+        <v>967.1215711834934</v>
       </c>
       <c r="Y11" t="n">
-        <v>824.9418599162537</v>
+        <v>967.1215711834934</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>807.2995979366456</v>
+        <v>807.2995979366451</v>
       </c>
       <c r="C12" t="n">
-        <v>656.6453674967378</v>
+        <v>656.6453674967373</v>
       </c>
       <c r="D12" t="n">
-        <v>526.5564001182181</v>
+        <v>526.5564001182177</v>
       </c>
       <c r="E12" t="n">
-        <v>390.1099092291058</v>
+        <v>390.1099092291054</v>
       </c>
       <c r="F12" t="n">
-        <v>265.6781031122376</v>
+        <v>265.6781031122372</v>
       </c>
       <c r="G12" t="n">
-        <v>146.4551862156334</v>
+        <v>146.4551862156336</v>
       </c>
       <c r="H12" t="n">
         <v>66.24047188392493</v>
       </c>
       <c r="I12" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J12" t="n">
-        <v>45.66757358674061</v>
+        <v>236.2778811851436</v>
       </c>
       <c r="K12" t="n">
-        <v>89.41846195271799</v>
+        <v>688.4688815933474</v>
       </c>
       <c r="L12" t="n">
-        <v>475.4397437137534</v>
+        <v>1033.477769991866</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.575966849668</v>
+        <v>1149.846325816688</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.712189985584</v>
+        <v>1278.660430243985</v>
       </c>
       <c r="O12" t="n">
-        <v>2170.848413121499</v>
+        <v>1382.057303037807</v>
       </c>
       <c r="P12" t="n">
-        <v>2241.267026109737</v>
+        <v>1944.309815913565</v>
       </c>
       <c r="Q12" t="n">
-        <v>2255.892526353958</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="R12" t="n">
         <v>2283.37867933703</v>
@@ -5159,13 +5159,13 @@
         <v>1557.834472818801</v>
       </c>
       <c r="W12" t="n">
-        <v>1327.717226952088</v>
+        <v>1327.717226952087</v>
       </c>
       <c r="X12" t="n">
-        <v>1138.4101493021</v>
+        <v>1138.410149302099</v>
       </c>
       <c r="Y12" t="n">
-        <v>959.0959323776069</v>
+        <v>959.0959323776065</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.4604228337878</v>
+        <v>1536.252465984668</v>
       </c>
       <c r="C13" t="n">
-        <v>362.4604228337878</v>
+        <v>1366.047348050658</v>
       </c>
       <c r="D13" t="n">
-        <v>362.4604228337878</v>
+        <v>1210.414234953172</v>
       </c>
       <c r="E13" t="n">
-        <v>362.4604228337878</v>
+        <v>1054.855422812375</v>
       </c>
       <c r="F13" t="n">
-        <v>362.4604228337878</v>
+        <v>897.5294880253479</v>
       </c>
       <c r="G13" t="n">
-        <v>194.907998644742</v>
+        <v>729.9770638363021</v>
       </c>
       <c r="H13" t="n">
-        <v>45.66757358674061</v>
+        <v>729.9770638363021</v>
       </c>
       <c r="I13" t="n">
-        <v>45.66757358674061</v>
+        <v>729.9770638363021</v>
       </c>
       <c r="J13" t="n">
-        <v>64.51190770295537</v>
+        <v>748.8213979525169</v>
       </c>
       <c r="K13" t="n">
-        <v>226.2413837364507</v>
+        <v>910.5508739860122</v>
       </c>
       <c r="L13" t="n">
-        <v>492.606393621189</v>
+        <v>1176.915883870751</v>
       </c>
       <c r="M13" t="n">
-        <v>786.6929438989548</v>
+        <v>1471.002434148516</v>
       </c>
       <c r="N13" t="n">
-        <v>1075.114426370553</v>
+        <v>1759.423916620115</v>
       </c>
       <c r="O13" t="n">
-        <v>1335.017837715189</v>
+        <v>2019.32732796475</v>
       </c>
       <c r="P13" t="n">
-        <v>1538.064235277601</v>
+        <v>2222.373725527163</v>
       </c>
       <c r="Q13" t="n">
-        <v>1599.069189087468</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="R13" t="n">
-        <v>1506.716022930246</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.127431448815</v>
+        <v>2092.790087855599</v>
       </c>
       <c r="T13" t="n">
-        <v>1083.406252020768</v>
+        <v>2092.790087855599</v>
       </c>
       <c r="U13" t="n">
-        <v>798.0057309742056</v>
+        <v>2092.790087855599</v>
       </c>
       <c r="V13" t="n">
-        <v>645.7908249026102</v>
+        <v>1826.810742676424</v>
       </c>
       <c r="W13" t="n">
-        <v>362.4604228337878</v>
+        <v>1826.810742676424</v>
       </c>
       <c r="X13" t="n">
-        <v>362.4604228337878</v>
+        <v>1826.810742676424</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.4604228337878</v>
+        <v>1721.46048467597</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1258.321038437288</v>
+        <v>1539.364302950923</v>
       </c>
       <c r="C14" t="n">
-        <v>865.1455369402183</v>
+        <v>1539.364302950923</v>
       </c>
       <c r="D14" t="n">
-        <v>865.1455369402183</v>
+        <v>1153.923174167591</v>
       </c>
       <c r="E14" t="n">
-        <v>462.5620120567629</v>
+        <v>751.3396492841355</v>
       </c>
       <c r="F14" t="n">
-        <v>45.66757358674061</v>
+        <v>431.7663584191843</v>
       </c>
       <c r="G14" t="n">
-        <v>45.66757358674061</v>
+        <v>431.7663584191843</v>
       </c>
       <c r="H14" t="n">
-        <v>45.66757358674061</v>
+        <v>123.7022931757087</v>
       </c>
       <c r="I14" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J14" t="n">
-        <v>59.27906853099235</v>
+        <v>320.4318810027431</v>
       </c>
       <c r="K14" t="n">
-        <v>112.6592078962439</v>
+        <v>874.4221955429014</v>
       </c>
       <c r="L14" t="n">
-        <v>434.7562265333702</v>
+        <v>964.6311238279628</v>
       </c>
       <c r="M14" t="n">
-        <v>999.8924496692853</v>
+        <v>1085.591072283412</v>
       </c>
       <c r="N14" t="n">
-        <v>1565.0286728052</v>
+        <v>1211.507254610845</v>
       </c>
       <c r="O14" t="n">
-        <v>2130.164895941115</v>
+        <v>1367.846228883782</v>
       </c>
       <c r="P14" t="n">
-        <v>2201.818990665491</v>
+        <v>1932.982452019697</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.315946407667</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="R14" t="n">
         <v>2283.37867933703</v>
       </c>
       <c r="S14" t="n">
-        <v>2283.37867933703</v>
+        <v>2152.508490568123</v>
       </c>
       <c r="T14" t="n">
-        <v>2283.37867933703</v>
+        <v>1935.855012030322</v>
       </c>
       <c r="U14" t="n">
-        <v>2283.37867933703</v>
+        <v>1935.855012030322</v>
       </c>
       <c r="V14" t="n">
-        <v>2283.37867933703</v>
+        <v>1935.855012030322</v>
       </c>
       <c r="W14" t="n">
-        <v>2283.37867933703</v>
+        <v>1935.855012030322</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.306493228084</v>
+        <v>1935.855012030322</v>
       </c>
       <c r="Y14" t="n">
-        <v>1658.815784148685</v>
+        <v>1539.364302950923</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>807.2995979366456</v>
+        <v>807.2995979366447</v>
       </c>
       <c r="C15" t="n">
-        <v>656.6453674967377</v>
+        <v>656.6453674967368</v>
       </c>
       <c r="D15" t="n">
-        <v>526.5564001182181</v>
+        <v>526.5564001182172</v>
       </c>
       <c r="E15" t="n">
-        <v>390.1099092291058</v>
+        <v>390.1099092291049</v>
       </c>
       <c r="F15" t="n">
-        <v>265.6781031122375</v>
+        <v>265.6781031122366</v>
       </c>
       <c r="G15" t="n">
-        <v>146.4551862156341</v>
+        <v>146.4551862156331</v>
       </c>
       <c r="H15" t="n">
-        <v>66.24047188392524</v>
+        <v>66.24047188392493</v>
       </c>
       <c r="I15" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J15" t="n">
         <v>236.2778811851436</v>
       </c>
       <c r="K15" t="n">
-        <v>386.5016233598743</v>
+        <v>688.4688815933474</v>
       </c>
       <c r="L15" t="n">
-        <v>475.4397437137534</v>
+        <v>777.4070019472265</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.575966849668</v>
+        <v>893.7755577720491</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.712189985584</v>
+        <v>1251.174277260912</v>
       </c>
       <c r="O15" t="n">
-        <v>2170.848413121499</v>
+        <v>1354.571150054734</v>
       </c>
       <c r="P15" t="n">
-        <v>2241.267026109737</v>
+        <v>1916.823662930492</v>
       </c>
       <c r="Q15" t="n">
-        <v>2255.892526353958</v>
+        <v>2255.892526353957</v>
       </c>
       <c r="R15" t="n">
         <v>2283.37867933703</v>
@@ -5387,22 +5387,22 @@
         <v>2163.99307183575</v>
       </c>
       <c r="T15" t="n">
-        <v>1990.382558490702</v>
+        <v>1990.382558490701</v>
       </c>
       <c r="U15" t="n">
-        <v>1780.374474447734</v>
+        <v>1780.374474447733</v>
       </c>
       <c r="V15" t="n">
-        <v>1557.834472818801</v>
+        <v>1557.8344728188</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.717226952088</v>
+        <v>1327.717226952087</v>
       </c>
       <c r="X15" t="n">
-        <v>1138.4101493021</v>
+        <v>1138.410149302099</v>
       </c>
       <c r="Y15" t="n">
-        <v>959.0959323776069</v>
+        <v>959.095932377606</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.2188593108747</v>
+        <v>473.1406752008498</v>
       </c>
       <c r="C16" t="n">
-        <v>630.0137413768639</v>
+        <v>473.1406752008498</v>
       </c>
       <c r="D16" t="n">
-        <v>630.0137413768639</v>
+        <v>317.5075621033646</v>
       </c>
       <c r="E16" t="n">
-        <v>474.4549292360664</v>
+        <v>317.5075621033646</v>
       </c>
       <c r="F16" t="n">
-        <v>474.4549292360664</v>
+        <v>160.1816273163375</v>
       </c>
       <c r="G16" t="n">
-        <v>306.9025050470206</v>
+        <v>157.6620799890192</v>
       </c>
       <c r="H16" t="n">
         <v>157.6620799890192</v>
       </c>
       <c r="I16" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J16" t="n">
-        <v>64.51190770295537</v>
+        <v>64.51190770295536</v>
       </c>
       <c r="K16" t="n">
         <v>226.2413837364507</v>
@@ -5460,28 +5460,28 @@
         <v>1599.069189087468</v>
       </c>
       <c r="R16" t="n">
-        <v>1542.187317018044</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="S16" t="n">
-        <v>1351.598725536613</v>
+        <v>1408.480597606037</v>
       </c>
       <c r="T16" t="n">
-        <v>1351.598725536613</v>
+        <v>1175.75941817799</v>
       </c>
       <c r="U16" t="n">
-        <v>1066.198204490051</v>
+        <v>1175.75941817799</v>
       </c>
       <c r="V16" t="n">
-        <v>800.2188593108747</v>
+        <v>1175.75941817799</v>
       </c>
       <c r="W16" t="n">
-        <v>800.2188593108747</v>
+        <v>892.4290161091681</v>
       </c>
       <c r="X16" t="n">
-        <v>800.2188593108747</v>
+        <v>658.3486938921511</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.2188593108747</v>
+        <v>658.3486938921511</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2048.284042983404</v>
+        <v>1269.739746008433</v>
       </c>
       <c r="C17" t="n">
-        <v>2048.284042983404</v>
+        <v>876.564244511364</v>
       </c>
       <c r="D17" t="n">
-        <v>1662.842914200071</v>
+        <v>491.1231157280317</v>
       </c>
       <c r="E17" t="n">
-        <v>1260.259389316616</v>
+        <v>491.1231157280317</v>
       </c>
       <c r="F17" t="n">
-        <v>843.3649508465935</v>
+        <v>491.1231157280317</v>
       </c>
       <c r="G17" t="n">
-        <v>431.7663584191843</v>
+        <v>353.7316388302162</v>
       </c>
       <c r="H17" t="n">
-        <v>123.7022931757087</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="I17" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J17" t="n">
-        <v>59.27906853099235</v>
+        <v>320.4318810027431</v>
       </c>
       <c r="K17" t="n">
-        <v>112.6592078962439</v>
+        <v>373.8120203679946</v>
       </c>
       <c r="L17" t="n">
-        <v>566.5626628220402</v>
+        <v>938.9482435039097</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.698885957955</v>
+        <v>1059.908191959359</v>
       </c>
       <c r="N17" t="n">
-        <v>1257.615068285388</v>
+        <v>1185.824374286792</v>
       </c>
       <c r="O17" t="n">
-        <v>1367.846228883783</v>
+        <v>1750.960597422707</v>
       </c>
       <c r="P17" t="n">
-        <v>1932.982452019698</v>
+        <v>2201.818990665491</v>
       </c>
       <c r="Q17" t="n">
-        <v>2283.37867933703</v>
+        <v>2224.315946407667</v>
       </c>
       <c r="R17" t="n">
         <v>2283.37867933703</v>
       </c>
       <c r="S17" t="n">
-        <v>2152.508490568123</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="T17" t="n">
-        <v>2048.284042983404</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.284042983404</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.284042983404</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="W17" t="n">
-        <v>2048.284042983404</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="X17" t="n">
-        <v>2048.284042983404</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="Y17" t="n">
-        <v>2048.284042983404</v>
+        <v>1670.23449171983</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>807.2995979366451</v>
+        <v>807.2995979366449</v>
       </c>
       <c r="C18" t="n">
-        <v>656.6453674967372</v>
+        <v>656.6453674967371</v>
       </c>
       <c r="D18" t="n">
-        <v>526.5564001182177</v>
+        <v>526.5564001182174</v>
       </c>
       <c r="E18" t="n">
-        <v>390.1099092291054</v>
+        <v>390.1099092291052</v>
       </c>
       <c r="F18" t="n">
-        <v>265.6781031122371</v>
+        <v>265.678103112237</v>
       </c>
       <c r="G18" t="n">
-        <v>146.4551862156336</v>
+        <v>146.4551862156334</v>
       </c>
       <c r="H18" t="n">
         <v>66.24047188392493</v>
       </c>
       <c r="I18" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J18" t="n">
-        <v>45.66757358674061</v>
+        <v>236.2778811851436</v>
       </c>
       <c r="K18" t="n">
-        <v>497.8585739949444</v>
+        <v>688.4688815933474</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.99479713086</v>
+        <v>868.6956298459454</v>
       </c>
       <c r="M18" t="n">
-        <v>1179.363352955682</v>
+        <v>985.064185670768</v>
       </c>
       <c r="N18" t="n">
-        <v>1744.499576091597</v>
+        <v>1113.878290098065</v>
       </c>
       <c r="O18" t="n">
-        <v>1873.891202925326</v>
+        <v>1679.014513233979</v>
       </c>
       <c r="P18" t="n">
-        <v>1944.309815913565</v>
+        <v>2241.267026109737</v>
       </c>
       <c r="Q18" t="n">
-        <v>2283.37867933703</v>
+        <v>2255.892526353957</v>
       </c>
       <c r="R18" t="n">
         <v>2283.37867933703</v>
@@ -5624,13 +5624,13 @@
         <v>2163.99307183575</v>
       </c>
       <c r="T18" t="n">
-        <v>1990.382558490702</v>
+        <v>1990.382558490701</v>
       </c>
       <c r="U18" t="n">
-        <v>1780.374474447734</v>
+        <v>1780.374474447733</v>
       </c>
       <c r="V18" t="n">
-        <v>1557.834472818801</v>
+        <v>1557.8344728188</v>
       </c>
       <c r="W18" t="n">
         <v>1327.717226952087</v>
@@ -5639,7 +5639,7 @@
         <v>1138.410149302099</v>
       </c>
       <c r="Y18" t="n">
-        <v>959.0959323776065</v>
+        <v>959.0959323776062</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>999.3153638401348</v>
+        <v>526.1047447036109</v>
       </c>
       <c r="C19" t="n">
-        <v>887.3029986233296</v>
+        <v>526.1047447036109</v>
       </c>
       <c r="D19" t="n">
-        <v>887.3029986233296</v>
+        <v>526.1047447036109</v>
       </c>
       <c r="E19" t="n">
-        <v>887.3029986233296</v>
+        <v>370.5459325628134</v>
       </c>
       <c r="F19" t="n">
-        <v>729.9770638363026</v>
+        <v>213.2199977757863</v>
       </c>
       <c r="G19" t="n">
-        <v>729.9770638363026</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="H19" t="n">
-        <v>729.9770638363026</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="I19" t="n">
-        <v>729.9770638363026</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J19" t="n">
-        <v>748.8213979525174</v>
+        <v>64.51190770295536</v>
       </c>
       <c r="K19" t="n">
-        <v>910.5508739860127</v>
+        <v>226.2413837364507</v>
       </c>
       <c r="L19" t="n">
-        <v>1176.915883870751</v>
+        <v>492.606393621189</v>
       </c>
       <c r="M19" t="n">
-        <v>1471.002434148517</v>
+        <v>786.6929438989548</v>
       </c>
       <c r="N19" t="n">
-        <v>1759.423916620116</v>
+        <v>1075.114426370553</v>
       </c>
       <c r="O19" t="n">
-        <v>2019.327327964751</v>
+        <v>1335.017837715189</v>
       </c>
       <c r="P19" t="n">
-        <v>2222.373725527163</v>
+        <v>1538.064235277601</v>
       </c>
       <c r="Q19" t="n">
-        <v>2283.37867933703</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="R19" t="n">
-        <v>2191.025513179808</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="S19" t="n">
-        <v>2191.025513179808</v>
+        <v>1534.676994329722</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.025513179808</v>
+        <v>1534.676994329722</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.025513179808</v>
+        <v>1249.27647328316</v>
       </c>
       <c r="V19" t="n">
-        <v>1925.046168000632</v>
+        <v>983.2971281039845</v>
       </c>
       <c r="W19" t="n">
-        <v>1641.71576593181</v>
+        <v>983.2971281039845</v>
       </c>
       <c r="X19" t="n">
-        <v>1407.635443714793</v>
+        <v>749.2168058869676</v>
       </c>
       <c r="Y19" t="n">
-        <v>1184.523382531436</v>
+        <v>526.1047447036109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1566.385103680763</v>
+        <v>1276.744129367627</v>
       </c>
       <c r="C20" t="n">
-        <v>1173.209602183694</v>
+        <v>1276.744129367627</v>
       </c>
       <c r="D20" t="n">
-        <v>1173.209602183694</v>
+        <v>1276.744129367627</v>
       </c>
       <c r="E20" t="n">
-        <v>770.6260773002384</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="F20" t="n">
-        <v>353.7316388302162</v>
+        <v>457.2661660141497</v>
       </c>
       <c r="G20" t="n">
-        <v>353.7316388302162</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="H20" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="I20" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J20" t="n">
-        <v>59.27906853099235</v>
+        <v>320.4318810027431</v>
       </c>
       <c r="K20" t="n">
-        <v>112.6592078962439</v>
+        <v>874.4221955429014</v>
       </c>
       <c r="L20" t="n">
-        <v>677.7954310321591</v>
+        <v>1049.316003376525</v>
       </c>
       <c r="M20" t="n">
-        <v>798.7553794876085</v>
+        <v>1170.275951831974</v>
       </c>
       <c r="N20" t="n">
-        <v>1363.891602623524</v>
+        <v>1296.192134159407</v>
       </c>
       <c r="O20" t="n">
-        <v>1474.122763221918</v>
+        <v>1861.328357295322</v>
       </c>
       <c r="P20" t="n">
-        <v>1932.982452019698</v>
+        <v>1932.982452019697</v>
       </c>
       <c r="Q20" t="n">
         <v>2283.37867933703</v>
@@ -5782,22 +5782,22 @@
         <v>2283.37867933703</v>
       </c>
       <c r="T20" t="n">
-        <v>2283.37867933703</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="U20" t="n">
-        <v>2283.37867933703</v>
+        <v>2066.725200799229</v>
       </c>
       <c r="V20" t="n">
-        <v>2283.37867933703</v>
+        <v>1724.618391502748</v>
       </c>
       <c r="W20" t="n">
-        <v>1912.379644305318</v>
+        <v>1724.618391502748</v>
       </c>
       <c r="X20" t="n">
-        <v>1912.379644305318</v>
+        <v>1724.618391502748</v>
       </c>
       <c r="Y20" t="n">
-        <v>1912.379644305318</v>
+        <v>1328.127682423349</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>66.24047188392493</v>
       </c>
       <c r="I21" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J21" t="n">
-        <v>45.66757358674061</v>
+        <v>236.2778811851436</v>
       </c>
       <c r="K21" t="n">
-        <v>89.41846195271799</v>
+        <v>688.4688815933474</v>
       </c>
       <c r="L21" t="n">
-        <v>502.9258966968257</v>
+        <v>1253.605104729262</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.062119832741</v>
+        <v>1369.973660554085</v>
       </c>
       <c r="N21" t="n">
-        <v>1633.198342968656</v>
+        <v>1770.494330131504</v>
       </c>
       <c r="O21" t="n">
-        <v>2198.334566104571</v>
+        <v>1873.891202925326</v>
       </c>
       <c r="P21" t="n">
-        <v>2268.75317909281</v>
+        <v>1944.309815913565</v>
       </c>
       <c r="Q21" t="n">
         <v>2283.37867933703</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>316.3650163795426</v>
+        <v>215.8726915207514</v>
       </c>
       <c r="C22" t="n">
-        <v>146.1598984455318</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="D22" t="n">
-        <v>146.1598984455318</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="E22" t="n">
-        <v>146.1598984455318</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1598984455318</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="G22" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="H22" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="I22" t="n">
-        <v>45.66757358674061</v>
+        <v>45.6675735867406</v>
       </c>
       <c r="J22" t="n">
-        <v>64.51190770295537</v>
+        <v>64.51190770295536</v>
       </c>
       <c r="K22" t="n">
         <v>226.2413837364507</v>
@@ -5934,28 +5934,28 @@
         <v>1599.069189087468</v>
       </c>
       <c r="R22" t="n">
-        <v>1506.716022930246</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="S22" t="n">
-        <v>1506.716022930246</v>
+        <v>1468.51215793466</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.994843502199</v>
+        <v>1235.790978506613</v>
       </c>
       <c r="U22" t="n">
-        <v>1273.994843502199</v>
+        <v>950.3904574600508</v>
       </c>
       <c r="V22" t="n">
-        <v>1008.015498323023</v>
+        <v>684.411112280875</v>
       </c>
       <c r="W22" t="n">
-        <v>724.6850962542005</v>
+        <v>401.0807102120527</v>
       </c>
       <c r="X22" t="n">
-        <v>724.6850962542005</v>
+        <v>401.0807102120527</v>
       </c>
       <c r="Y22" t="n">
-        <v>501.5730350708438</v>
+        <v>401.0807102120527</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2280.715669200587</v>
+        <v>2435.061225694497</v>
       </c>
       <c r="C23" t="n">
-        <v>2093.951616570144</v>
+        <v>2041.885724197427</v>
       </c>
       <c r="D23" t="n">
         <v>1708.510487786812</v>
@@ -5986,55 +5986,55 @@
         <v>169.3698667624493</v>
       </c>
       <c r="I23" t="n">
-        <v>91.33514717348123</v>
+        <v>91.3351471734812</v>
       </c>
       <c r="J23" t="n">
-        <v>104.946642117733</v>
+        <v>366.0994545894837</v>
       </c>
       <c r="K23" t="n">
-        <v>597.5938211838788</v>
+        <v>920.089769129642</v>
       </c>
       <c r="L23" t="n">
-        <v>1332.838729220656</v>
+        <v>1655.334677166419</v>
       </c>
       <c r="M23" t="n">
-        <v>2148.027378802436</v>
+        <v>2470.523326748199</v>
       </c>
       <c r="N23" t="n">
-        <v>2949.382151191737</v>
+        <v>3271.8780991375</v>
       </c>
       <c r="O23" t="n">
-        <v>3647.721111732315</v>
+        <v>3970.217059678078</v>
       </c>
       <c r="P23" t="n">
-        <v>4216.361131356729</v>
+        <v>4538.857079302492</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.757358674062</v>
+        <v>4566.75735867406</v>
       </c>
       <c r="R23" t="n">
-        <v>4566.757358674062</v>
+        <v>4566.75735867406</v>
       </c>
       <c r="S23" t="n">
-        <v>4435.887169905154</v>
+        <v>4435.887169905152</v>
       </c>
       <c r="T23" t="n">
-        <v>4435.887169905154</v>
+        <v>4219.233691367352</v>
       </c>
       <c r="U23" t="n">
-        <v>4180.25957338652</v>
+        <v>3963.606094848717</v>
       </c>
       <c r="V23" t="n">
-        <v>3838.152764090039</v>
+        <v>3621.499285552236</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.153729058326</v>
+        <v>3621.499285552236</v>
       </c>
       <c r="X23" t="n">
-        <v>3077.701123991383</v>
+        <v>3232.046680485293</v>
       </c>
       <c r="Y23" t="n">
-        <v>2681.210414911984</v>
+        <v>2835.555971405894</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>111.9080454706655</v>
       </c>
       <c r="I24" t="n">
-        <v>91.33514717348123</v>
+        <v>91.3351471734812</v>
       </c>
       <c r="J24" t="n">
-        <v>91.33514717348123</v>
+        <v>281.9454547718842</v>
       </c>
       <c r="K24" t="n">
-        <v>135.0860355394586</v>
+        <v>734.136455180088</v>
       </c>
       <c r="L24" t="n">
-        <v>224.0241558933377</v>
+        <v>1079.145343578607</v>
       </c>
       <c r="M24" t="n">
-        <v>1059.62761217366</v>
+        <v>1195.513899403429</v>
       </c>
       <c r="N24" t="n">
-        <v>1928.738079537141</v>
+        <v>1324.328003830726</v>
       </c>
       <c r="O24" t="n">
-        <v>2244.002139691312</v>
+        <v>1427.724876624548</v>
       </c>
       <c r="P24" t="n">
-        <v>2314.42075267955</v>
+        <v>1989.977389500305</v>
       </c>
       <c r="Q24" t="n">
         <v>2329.046252923771</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3170.681677960361</v>
+        <v>408.1279964205283</v>
       </c>
       <c r="C25" t="n">
-        <v>3170.681677960361</v>
+        <v>408.1279964205283</v>
       </c>
       <c r="D25" t="n">
-        <v>3170.681677960361</v>
+        <v>408.1279964205283</v>
       </c>
       <c r="E25" t="n">
-        <v>3170.681677960361</v>
+        <v>408.1279964205283</v>
       </c>
       <c r="F25" t="n">
-        <v>3013.355743173333</v>
+        <v>408.1279964205283</v>
       </c>
       <c r="G25" t="n">
-        <v>3013.355743173333</v>
+        <v>240.5755722314826</v>
       </c>
       <c r="H25" t="n">
-        <v>3013.355743173333</v>
+        <v>91.3351471734812</v>
       </c>
       <c r="I25" t="n">
-        <v>3013.355743173333</v>
+        <v>91.3351471734812</v>
       </c>
       <c r="J25" t="n">
-        <v>3032.200077289548</v>
+        <v>110.179481289696</v>
       </c>
       <c r="K25" t="n">
-        <v>3193.929553323043</v>
+        <v>271.9089573231913</v>
       </c>
       <c r="L25" t="n">
-        <v>3460.294563207782</v>
+        <v>538.2739672079297</v>
       </c>
       <c r="M25" t="n">
-        <v>3754.381113485548</v>
+        <v>832.3605174856955</v>
       </c>
       <c r="N25" t="n">
-        <v>4042.802595957146</v>
+        <v>1120.781999957294</v>
       </c>
       <c r="O25" t="n">
-        <v>4302.706007301782</v>
+        <v>1380.685411301929</v>
       </c>
       <c r="P25" t="n">
-        <v>4505.752404864194</v>
+        <v>1583.731808864342</v>
       </c>
       <c r="Q25" t="n">
-        <v>4566.757358674062</v>
+        <v>1644.736762674209</v>
       </c>
       <c r="R25" t="n">
-        <v>4474.404192516839</v>
+        <v>1644.736762674209</v>
       </c>
       <c r="S25" t="n">
-        <v>4283.815601035409</v>
+        <v>1454.148171192778</v>
       </c>
       <c r="T25" t="n">
-        <v>4051.094421607362</v>
+        <v>1221.426991764731</v>
       </c>
       <c r="U25" t="n">
-        <v>3765.6939005608</v>
+        <v>936.0264707181689</v>
       </c>
       <c r="V25" t="n">
-        <v>3499.714555381624</v>
+        <v>670.0471255389931</v>
       </c>
       <c r="W25" t="n">
-        <v>3499.714555381624</v>
+        <v>670.0471255389931</v>
       </c>
       <c r="X25" t="n">
-        <v>3499.714555381624</v>
+        <v>593.3360151118296</v>
       </c>
       <c r="Y25" t="n">
-        <v>3276.602494198267</v>
+        <v>593.3360151118296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2013.160214321498</v>
+        <v>2144.030403090404</v>
       </c>
       <c r="C26" t="n">
-        <v>1619.984712824428</v>
+        <v>1750.854901593334</v>
       </c>
       <c r="D26" t="n">
-        <v>1234.543584041096</v>
+        <v>1365.413772810002</v>
       </c>
       <c r="E26" t="n">
-        <v>1234.543584041096</v>
+        <v>962.8302479265467</v>
       </c>
       <c r="F26" t="n">
-        <v>888.0144849065083</v>
+        <v>545.9358094565245</v>
       </c>
       <c r="G26" t="n">
-        <v>476.4158924790992</v>
+        <v>398.3811728901311</v>
       </c>
       <c r="H26" t="n">
-        <v>168.3518272356235</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="I26" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="J26" t="n">
         <v>365.0814150626579</v>
       </c>
       <c r="K26" t="n">
-        <v>487.6291119132268</v>
+        <v>919.0717296028163</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.874019950004</v>
+        <v>1654.316637639593</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.062669531784</v>
+        <v>2469.505287221374</v>
       </c>
       <c r="N26" t="n">
-        <v>2839.417441921085</v>
+        <v>3270.860059610674</v>
       </c>
       <c r="O26" t="n">
-        <v>3537.756402461664</v>
+        <v>3537.756402461662</v>
       </c>
       <c r="P26" t="n">
-        <v>4106.396422086077</v>
+        <v>4106.396422086075</v>
       </c>
       <c r="Q26" t="n">
-        <v>4456.79264940341</v>
+        <v>4456.792649403408</v>
       </c>
       <c r="R26" t="n">
-        <v>4515.855382332774</v>
+        <v>4515.855382332772</v>
       </c>
       <c r="S26" t="n">
-        <v>4384.985193563866</v>
+        <v>4515.855382332772</v>
       </c>
       <c r="T26" t="n">
-        <v>4168.331715026065</v>
+        <v>4299.201903794971</v>
       </c>
       <c r="U26" t="n">
-        <v>3912.704118507431</v>
+        <v>4043.574307276337</v>
       </c>
       <c r="V26" t="n">
-        <v>3570.59730921095</v>
+        <v>3701.467497979856</v>
       </c>
       <c r="W26" t="n">
-        <v>3199.598274179237</v>
+        <v>3330.468462948143</v>
       </c>
       <c r="X26" t="n">
-        <v>2810.145669112294</v>
+        <v>2941.0158578812</v>
       </c>
       <c r="Y26" t="n">
-        <v>2413.654960032895</v>
+        <v>2544.525148801801</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>110.8900059438398</v>
       </c>
       <c r="I27" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="J27" t="n">
-        <v>90.31710764665547</v>
+        <v>280.9274152450585</v>
       </c>
       <c r="K27" t="n">
-        <v>134.0679960126329</v>
+        <v>733.1184156532622</v>
       </c>
       <c r="L27" t="n">
-        <v>223.0061163665119</v>
+        <v>822.0565360071413</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.609572646834</v>
+        <v>938.4250918319639</v>
       </c>
       <c r="N27" t="n">
-        <v>1927.720040010315</v>
+        <v>1295.823811320827</v>
       </c>
       <c r="O27" t="n">
-        <v>2215.497947181413</v>
+        <v>1399.220684114649</v>
       </c>
       <c r="P27" t="n">
-        <v>2285.916560169652</v>
+        <v>1961.473196990407</v>
       </c>
       <c r="Q27" t="n">
         <v>2300.542060413872</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3288.217696906853</v>
+        <v>395.1163448454544</v>
       </c>
       <c r="C28" t="n">
-        <v>3118.012578972843</v>
+        <v>395.1163448454544</v>
       </c>
       <c r="D28" t="n">
-        <v>3118.012578972843</v>
+        <v>395.1163448454544</v>
       </c>
       <c r="E28" t="n">
-        <v>2962.453766832045</v>
+        <v>239.5575327046568</v>
       </c>
       <c r="F28" t="n">
-        <v>2962.453766832045</v>
+        <v>239.5575327046568</v>
       </c>
       <c r="G28" t="n">
-        <v>2962.453766832045</v>
+        <v>239.5575327046568</v>
       </c>
       <c r="H28" t="n">
-        <v>2962.453766832045</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="I28" t="n">
-        <v>2962.453766832045</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="J28" t="n">
-        <v>2981.29810094826</v>
+        <v>109.1614417628702</v>
       </c>
       <c r="K28" t="n">
-        <v>3143.027576981755</v>
+        <v>270.8909177963656</v>
       </c>
       <c r="L28" t="n">
-        <v>3409.392586866494</v>
+        <v>537.2559276811039</v>
       </c>
       <c r="M28" t="n">
-        <v>3703.47913714426</v>
+        <v>831.3424779588697</v>
       </c>
       <c r="N28" t="n">
-        <v>3991.900619615858</v>
+        <v>1119.763960430468</v>
       </c>
       <c r="O28" t="n">
-        <v>4251.804030960494</v>
+        <v>1379.667371775104</v>
       </c>
       <c r="P28" t="n">
-        <v>4454.850428522906</v>
+        <v>1582.713769337516</v>
       </c>
       <c r="Q28" t="n">
-        <v>4515.855382332774</v>
+        <v>1643.718723147383</v>
       </c>
       <c r="R28" t="n">
-        <v>4423.502216175551</v>
+        <v>1643.718723147383</v>
       </c>
       <c r="S28" t="n">
-        <v>4232.913624694121</v>
+        <v>1453.130131665952</v>
       </c>
       <c r="T28" t="n">
-        <v>4000.192445266074</v>
+        <v>1220.408952237905</v>
       </c>
       <c r="U28" t="n">
-        <v>3714.791924219512</v>
+        <v>1220.408952237905</v>
       </c>
       <c r="V28" t="n">
-        <v>3448.812579040336</v>
+        <v>954.4296070587296</v>
       </c>
       <c r="W28" t="n">
-        <v>3448.812579040336</v>
+        <v>671.0992049899073</v>
       </c>
       <c r="X28" t="n">
-        <v>3288.217696906853</v>
+        <v>580.3243635367556</v>
       </c>
       <c r="Y28" t="n">
-        <v>3288.217696906853</v>
+        <v>580.3243635367556</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2013.160214321498</v>
+        <v>2360.683881628205</v>
       </c>
       <c r="C29" t="n">
-        <v>1619.984712824428</v>
+        <v>1967.508380131135</v>
       </c>
       <c r="D29" t="n">
-        <v>1234.543584041096</v>
+        <v>1582.067251347803</v>
       </c>
       <c r="E29" t="n">
-        <v>831.9600591576407</v>
+        <v>1179.483726464347</v>
       </c>
       <c r="F29" t="n">
-        <v>415.0656206876184</v>
+        <v>809.9797653175402</v>
       </c>
       <c r="G29" t="n">
         <v>398.3811728901311</v>
       </c>
       <c r="H29" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="I29" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="J29" t="n">
         <v>103.9286025909072</v>
       </c>
       <c r="K29" t="n">
-        <v>657.9189171310655</v>
+        <v>487.629111913225</v>
       </c>
       <c r="L29" t="n">
-        <v>1393.163825167843</v>
+        <v>1222.874019950002</v>
       </c>
       <c r="M29" t="n">
-        <v>2208.352474749623</v>
+        <v>2038.062669531782</v>
       </c>
       <c r="N29" t="n">
-        <v>3009.707247138924</v>
+        <v>2839.417441921083</v>
       </c>
       <c r="O29" t="n">
-        <v>3708.046207679502</v>
+        <v>3537.756402461662</v>
       </c>
       <c r="P29" t="n">
-        <v>4276.686227303916</v>
+        <v>4106.396422086075</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.855382332774</v>
+        <v>4456.792649403408</v>
       </c>
       <c r="R29" t="n">
-        <v>4515.855382332774</v>
+        <v>4515.855382332772</v>
       </c>
       <c r="S29" t="n">
-        <v>4384.985193563866</v>
+        <v>4515.855382332772</v>
       </c>
       <c r="T29" t="n">
-        <v>4168.331715026065</v>
+        <v>4515.855382332772</v>
       </c>
       <c r="U29" t="n">
-        <v>3912.704118507431</v>
+        <v>4260.227785814138</v>
       </c>
       <c r="V29" t="n">
-        <v>3570.59730921095</v>
+        <v>3918.120976517656</v>
       </c>
       <c r="W29" t="n">
-        <v>3199.598274179237</v>
+        <v>3547.121941485944</v>
       </c>
       <c r="X29" t="n">
-        <v>2810.145669112294</v>
+        <v>3157.669336419001</v>
       </c>
       <c r="Y29" t="n">
-        <v>2413.654960032895</v>
+        <v>2761.178627339601</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>110.8900059438398</v>
       </c>
       <c r="I30" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="J30" t="n">
-        <v>90.31710764665547</v>
+        <v>280.9274152450585</v>
       </c>
       <c r="K30" t="n">
-        <v>134.0679960126329</v>
+        <v>733.1184156532622</v>
       </c>
       <c r="L30" t="n">
-        <v>795.7319456531742</v>
+        <v>1050.641151068708</v>
       </c>
       <c r="M30" t="n">
-        <v>1270.476760007183</v>
+        <v>1167.009706893531</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.587227370664</v>
+        <v>1295.823811320827</v>
       </c>
       <c r="O30" t="n">
-        <v>2242.984100164486</v>
+        <v>1399.220684114649</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.402713152725</v>
+        <v>1961.473196990407</v>
       </c>
       <c r="Q30" t="n">
-        <v>2328.028213396945</v>
+        <v>2300.542060413872</v>
       </c>
       <c r="R30" t="n">
         <v>2328.028213396945</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.7357062060248</v>
+        <v>493.4301855655564</v>
       </c>
       <c r="C31" t="n">
-        <v>570.7542787635257</v>
+        <v>323.2250676315456</v>
       </c>
       <c r="D31" t="n">
-        <v>570.7542787635257</v>
+        <v>323.2250676315456</v>
       </c>
       <c r="E31" t="n">
-        <v>415.1954666227282</v>
+        <v>247.6430424336825</v>
       </c>
       <c r="F31" t="n">
-        <v>257.8695318357012</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="G31" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="H31" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="I31" t="n">
-        <v>90.31710764665547</v>
+        <v>90.31710764665544</v>
       </c>
       <c r="J31" t="n">
         <v>109.1614417628702</v>
@@ -6645,28 +6645,28 @@
         <v>1643.718723147383</v>
       </c>
       <c r="R31" t="n">
-        <v>1551.36555699016</v>
+        <v>1643.718723147383</v>
       </c>
       <c r="S31" t="n">
-        <v>1360.77696550873</v>
+        <v>1453.130131665952</v>
       </c>
       <c r="T31" t="n">
-        <v>1128.055786080683</v>
+        <v>1453.130131665952</v>
       </c>
       <c r="U31" t="n">
-        <v>1128.055786080683</v>
+        <v>1167.72961061939</v>
       </c>
       <c r="V31" t="n">
-        <v>1128.055786080683</v>
+        <v>901.7502654402143</v>
       </c>
       <c r="W31" t="n">
-        <v>1128.055786080683</v>
+        <v>901.7502654402143</v>
       </c>
       <c r="X31" t="n">
-        <v>1128.055786080683</v>
+        <v>901.7502654402143</v>
       </c>
       <c r="Y31" t="n">
-        <v>904.9437248973261</v>
+        <v>678.6382042568576</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1254.138424326286</v>
+        <v>1562.202489569762</v>
       </c>
       <c r="C32" t="n">
-        <v>860.962922829217</v>
+        <v>1169.026988072692</v>
       </c>
       <c r="D32" t="n">
-        <v>475.5217940458846</v>
+        <v>783.5858592893602</v>
       </c>
       <c r="E32" t="n">
-        <v>72.93826916242914</v>
+        <v>381.0023344059047</v>
       </c>
       <c r="F32" t="n">
-        <v>72.93826916242914</v>
+        <v>381.0023344059047</v>
       </c>
       <c r="G32" t="n">
-        <v>72.93826916242914</v>
+        <v>381.0023344059047</v>
       </c>
       <c r="H32" t="n">
-        <v>72.93826916242914</v>
+        <v>72.93826916242911</v>
       </c>
       <c r="I32" t="n">
-        <v>72.93826916242914</v>
+        <v>72.93826916242911</v>
       </c>
       <c r="J32" t="n">
-        <v>86.54976410668087</v>
+        <v>86.54976410668084</v>
       </c>
       <c r="K32" t="n">
-        <v>640.5400786468392</v>
+        <v>371.9786217576032</v>
       </c>
       <c r="L32" t="n">
-        <v>730.7490069319007</v>
+        <v>1107.22352979438</v>
       </c>
       <c r="M32" t="n">
-        <v>1545.937656513681</v>
+        <v>1228.18347824983</v>
       </c>
       <c r="N32" t="n">
-        <v>2347.292428902982</v>
+        <v>2029.538250639131</v>
       </c>
       <c r="O32" t="n">
-        <v>2727.877211179711</v>
+        <v>2727.877211179709</v>
       </c>
       <c r="P32" t="n">
-        <v>3296.517230804125</v>
+        <v>3296.517230804123</v>
       </c>
       <c r="Q32" t="n">
-        <v>3646.913458121457</v>
+        <v>3646.913458121455</v>
       </c>
       <c r="R32" t="n">
-        <v>3646.913458121457</v>
+        <v>3646.913458121455</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.04326935255</v>
+        <v>3646.913458121455</v>
       </c>
       <c r="T32" t="n">
-        <v>3409.309925030854</v>
+        <v>3461.746393755695</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.68232851222</v>
+        <v>3461.746393755695</v>
       </c>
       <c r="V32" t="n">
-        <v>2811.575519215738</v>
+        <v>3119.639584459213</v>
       </c>
       <c r="W32" t="n">
-        <v>2440.576484184026</v>
+        <v>2748.640549427501</v>
       </c>
       <c r="X32" t="n">
-        <v>2051.123879117082</v>
+        <v>2359.187944360558</v>
       </c>
       <c r="Y32" t="n">
-        <v>1654.633170037683</v>
+        <v>1962.697235281159</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>173.725881791322</v>
       </c>
       <c r="H33" t="n">
-        <v>93.51116745961346</v>
+        <v>93.51116745961343</v>
       </c>
       <c r="I33" t="n">
-        <v>72.93826916242914</v>
+        <v>72.93826916242911</v>
       </c>
       <c r="J33" t="n">
-        <v>72.93826916242914</v>
+        <v>263.5485767608321</v>
       </c>
       <c r="K33" t="n">
-        <v>116.6891575284065</v>
+        <v>715.7395771690359</v>
       </c>
       <c r="L33" t="n">
-        <v>205.6272778822856</v>
+        <v>804.677697522915</v>
       </c>
       <c r="M33" t="n">
-        <v>1041.230734162608</v>
+        <v>1149.630868409304</v>
       </c>
       <c r="N33" t="n">
-        <v>1170.044838589905</v>
+        <v>1278.444972836601</v>
       </c>
       <c r="O33" t="n">
-        <v>1733.771361792741</v>
+        <v>1381.841845630423</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.023874668498</v>
+        <v>1944.09435850618</v>
       </c>
       <c r="Q33" t="n">
-        <v>2310.649374912718</v>
+        <v>2283.163221929646</v>
       </c>
       <c r="R33" t="n">
         <v>2310.649374912718</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.5046290074576</v>
+        <v>829.2566775327928</v>
       </c>
       <c r="C34" t="n">
-        <v>379.5046290074576</v>
+        <v>659.051559598782</v>
       </c>
       <c r="D34" t="n">
-        <v>379.5046290074576</v>
+        <v>659.051559598782</v>
       </c>
       <c r="E34" t="n">
-        <v>379.5046290074576</v>
+        <v>659.051559598782</v>
       </c>
       <c r="F34" t="n">
-        <v>222.1786942204305</v>
+        <v>501.7256248117549</v>
       </c>
       <c r="G34" t="n">
-        <v>222.1786942204305</v>
+        <v>334.1732006227091</v>
       </c>
       <c r="H34" t="n">
-        <v>72.93826916242914</v>
+        <v>184.9327755647077</v>
       </c>
       <c r="I34" t="n">
-        <v>72.93826916242914</v>
+        <v>72.93826916242911</v>
       </c>
       <c r="J34" t="n">
-        <v>91.78260327864389</v>
+        <v>91.78260327864386</v>
       </c>
       <c r="K34" t="n">
         <v>253.5120793121392</v>
@@ -6882,28 +6882,28 @@
         <v>1626.339884663157</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.986718505934</v>
+        <v>1626.339884663157</v>
       </c>
       <c r="S34" t="n">
-        <v>1343.398127024503</v>
+        <v>1435.751293181726</v>
       </c>
       <c r="T34" t="n">
-        <v>1110.676947596456</v>
+        <v>1203.030113753679</v>
       </c>
       <c r="U34" t="n">
-        <v>825.276426549894</v>
+        <v>1052.368738716149</v>
       </c>
       <c r="V34" t="n">
-        <v>559.2970813707183</v>
+        <v>1052.368738716149</v>
       </c>
       <c r="W34" t="n">
-        <v>379.5046290074576</v>
+        <v>1052.368738716149</v>
       </c>
       <c r="X34" t="n">
-        <v>379.5046290074576</v>
+        <v>1052.368738716149</v>
       </c>
       <c r="Y34" t="n">
-        <v>379.5046290074576</v>
+        <v>829.2566775327928</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>462.5620120567629</v>
+        <v>1662.18525815096</v>
       </c>
       <c r="C35" t="n">
-        <v>462.5620120567629</v>
+        <v>1662.18525815096</v>
       </c>
       <c r="D35" t="n">
-        <v>462.5620120567629</v>
+        <v>1276.744129367627</v>
       </c>
       <c r="E35" t="n">
-        <v>462.5620120567629</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="F35" t="n">
-        <v>45.66757358674061</v>
+        <v>457.2661660141497</v>
       </c>
       <c r="G35" t="n">
         <v>45.66757358674061</v>
@@ -6940,49 +6940,49 @@
         <v>59.27906853099235</v>
       </c>
       <c r="K35" t="n">
-        <v>112.6592078962439</v>
+        <v>613.2693830711507</v>
       </c>
       <c r="L35" t="n">
-        <v>677.7954310321591</v>
+        <v>703.4783113562122</v>
       </c>
       <c r="M35" t="n">
-        <v>1185.960973561012</v>
+        <v>824.4382598116616</v>
       </c>
       <c r="N35" t="n">
-        <v>1751.097196696927</v>
+        <v>950.3544421390943</v>
       </c>
       <c r="O35" t="n">
-        <v>1861.328357295322</v>
+        <v>1515.490665275009</v>
       </c>
       <c r="P35" t="n">
-        <v>1932.982452019698</v>
+        <v>2080.626888410924</v>
       </c>
       <c r="Q35" t="n">
-        <v>2283.37867933703</v>
+        <v>2224.315946407667</v>
       </c>
       <c r="R35" t="n">
         <v>2283.37867933703</v>
       </c>
       <c r="S35" t="n">
-        <v>2152.508490568123</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="T35" t="n">
-        <v>1935.855012030323</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="U35" t="n">
-        <v>1680.227415511688</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="V35" t="n">
-        <v>1338.120606215206</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="W35" t="n">
-        <v>967.1215711834939</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="X35" t="n">
-        <v>577.6689661165507</v>
+        <v>2062.680003862356</v>
       </c>
       <c r="Y35" t="n">
-        <v>462.5620120567629</v>
+        <v>2062.680003862356</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>688.4688815933474</v>
       </c>
       <c r="L36" t="n">
-        <v>777.4070019472265</v>
+        <v>1253.605104729263</v>
       </c>
       <c r="M36" t="n">
-        <v>893.7755577720491</v>
+        <v>1369.973660554085</v>
       </c>
       <c r="N36" t="n">
-        <v>1251.174277260912</v>
+        <v>1498.787764981382</v>
       </c>
       <c r="O36" t="n">
-        <v>1354.571150054734</v>
+        <v>1602.184637775204</v>
       </c>
       <c r="P36" t="n">
         <v>1916.823662930492</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>997.5303823793787</v>
+        <v>790.0666708655438</v>
       </c>
       <c r="C37" t="n">
-        <v>997.5303823793787</v>
+        <v>619.861552931533</v>
       </c>
       <c r="D37" t="n">
-        <v>997.5303823793787</v>
+        <v>464.2284398340477</v>
       </c>
       <c r="E37" t="n">
-        <v>841.9715702385812</v>
+        <v>464.2284398340477</v>
       </c>
       <c r="F37" t="n">
-        <v>841.9715702385812</v>
+        <v>306.9025050470206</v>
       </c>
       <c r="G37" t="n">
-        <v>841.9715702385812</v>
+        <v>306.9025050470206</v>
       </c>
       <c r="H37" t="n">
-        <v>841.9715702385812</v>
+        <v>157.6620799890192</v>
       </c>
       <c r="I37" t="n">
-        <v>729.9770638363026</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="J37" t="n">
-        <v>748.8213979525174</v>
+        <v>64.51190770295537</v>
       </c>
       <c r="K37" t="n">
-        <v>910.5508739860127</v>
+        <v>226.2413837364507</v>
       </c>
       <c r="L37" t="n">
-        <v>1176.915883870751</v>
+        <v>492.606393621189</v>
       </c>
       <c r="M37" t="n">
-        <v>1471.002434148517</v>
+        <v>786.6929438989548</v>
       </c>
       <c r="N37" t="n">
-        <v>1759.423916620116</v>
+        <v>1075.114426370553</v>
       </c>
       <c r="O37" t="n">
-        <v>2019.327327964751</v>
+        <v>1335.017837715189</v>
       </c>
       <c r="P37" t="n">
-        <v>2222.373725527163</v>
+        <v>1538.064235277601</v>
       </c>
       <c r="Q37" t="n">
-        <v>2283.37867933703</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="R37" t="n">
-        <v>2283.37867933703</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="S37" t="n">
-        <v>2283.37867933703</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="T37" t="n">
-        <v>2189.240531719052</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="U37" t="n">
-        <v>2189.240531719052</v>
+        <v>1313.668668040906</v>
       </c>
       <c r="V37" t="n">
-        <v>1923.261186539876</v>
+        <v>1313.668668040906</v>
       </c>
       <c r="W37" t="n">
-        <v>1639.930784471054</v>
+        <v>1030.338265972083</v>
       </c>
       <c r="X37" t="n">
-        <v>1405.850462254037</v>
+        <v>975.274689556845</v>
       </c>
       <c r="Y37" t="n">
-        <v>1182.73840107068</v>
+        <v>975.274689556845</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>883.2419607208924</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="C38" t="n">
-        <v>490.066459223823</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="D38" t="n">
-        <v>123.7022931757087</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="E38" t="n">
-        <v>123.7022931757087</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="F38" t="n">
-        <v>123.7022931757087</v>
+        <v>457.2661660141497</v>
       </c>
       <c r="G38" t="n">
-        <v>123.7022931757087</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="H38" t="n">
-        <v>123.7022931757087</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="I38" t="n">
         <v>45.66757358674061</v>
       </c>
       <c r="J38" t="n">
-        <v>320.4318810027431</v>
+        <v>59.27906853099235</v>
       </c>
       <c r="K38" t="n">
-        <v>874.4221955429014</v>
+        <v>613.2693830711507</v>
       </c>
       <c r="L38" t="n">
-        <v>1000.982058304216</v>
+        <v>703.4783113562122</v>
       </c>
       <c r="M38" t="n">
-        <v>1566.118281440131</v>
+        <v>1268.614534492127</v>
       </c>
       <c r="N38" t="n">
-        <v>1692.034463767564</v>
+        <v>1394.53071681956</v>
       </c>
       <c r="O38" t="n">
-        <v>1802.265624365959</v>
+        <v>1861.328357295322</v>
       </c>
       <c r="P38" t="n">
-        <v>1873.919719090334</v>
+        <v>1932.982452019698</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.315946407667</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="R38" t="n">
         <v>2283.37867933703</v>
       </c>
       <c r="S38" t="n">
-        <v>2152.508490568123</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="T38" t="n">
-        <v>1935.855012030323</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="U38" t="n">
-        <v>1680.227415511688</v>
+        <v>2027.751082818396</v>
       </c>
       <c r="V38" t="n">
-        <v>1680.227415511688</v>
+        <v>1685.644273521914</v>
       </c>
       <c r="W38" t="n">
-        <v>1680.227415511688</v>
+        <v>1314.645238490202</v>
       </c>
       <c r="X38" t="n">
-        <v>1680.227415511688</v>
+        <v>1274.655350195569</v>
       </c>
       <c r="Y38" t="n">
-        <v>1283.736706432289</v>
+        <v>1274.655350195569</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>45.66757358674061</v>
       </c>
       <c r="J39" t="n">
-        <v>45.66757358674061</v>
+        <v>236.2778811851436</v>
       </c>
       <c r="K39" t="n">
-        <v>497.8585739949444</v>
+        <v>688.4688815933474</v>
       </c>
       <c r="L39" t="n">
-        <v>586.7966943488235</v>
+        <v>1253.605104729263</v>
       </c>
       <c r="M39" t="n">
-        <v>703.1652501736461</v>
+        <v>1818.741327865178</v>
       </c>
       <c r="N39" t="n">
-        <v>831.9793546009428</v>
+        <v>1947.555432292474</v>
       </c>
       <c r="O39" t="n">
-        <v>1382.057303037807</v>
+        <v>2198.334566104571</v>
       </c>
       <c r="P39" t="n">
-        <v>1944.309815913565</v>
+        <v>2268.75317909281</v>
       </c>
       <c r="Q39" t="n">
         <v>2283.37867933703</v>
@@ -7283,10 +7283,10 @@
         <v>2163.99307183575</v>
       </c>
       <c r="T39" t="n">
-        <v>1990.382558490702</v>
+        <v>1990.382558490701</v>
       </c>
       <c r="U39" t="n">
-        <v>1780.374474447734</v>
+        <v>1780.374474447733</v>
       </c>
       <c r="V39" t="n">
         <v>1557.8344728188</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7808640230935</v>
+        <v>963.9374821373856</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7808640230935</v>
+        <v>793.7323642033748</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7808640230935</v>
+        <v>638.0992511058896</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7808640230935</v>
+        <v>482.5404389650921</v>
       </c>
       <c r="F40" t="n">
-        <v>474.4549292360664</v>
+        <v>325.214504178065</v>
       </c>
       <c r="G40" t="n">
-        <v>306.9025050470206</v>
+        <v>157.6620799890192</v>
       </c>
       <c r="H40" t="n">
         <v>157.6620799890192</v>
@@ -7356,28 +7356,28 @@
         <v>1599.069189087468</v>
       </c>
       <c r="R40" t="n">
-        <v>1506.716022930246</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="S40" t="n">
-        <v>1316.127431448815</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="T40" t="n">
-        <v>1138.223327275273</v>
+        <v>1599.069189087468</v>
       </c>
       <c r="U40" t="n">
-        <v>1138.223327275273</v>
+        <v>1313.668668040906</v>
       </c>
       <c r="V40" t="n">
-        <v>1138.223327275273</v>
+        <v>1313.668668040906</v>
       </c>
       <c r="W40" t="n">
-        <v>854.8929252064502</v>
+        <v>1313.668668040906</v>
       </c>
       <c r="X40" t="n">
-        <v>854.8929252064502</v>
+        <v>1313.668668040906</v>
       </c>
       <c r="Y40" t="n">
-        <v>631.7808640230935</v>
+        <v>1149.145500828687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2048.284042983404</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="C41" t="n">
-        <v>2048.284042983404</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="D41" t="n">
-        <v>1662.842914200071</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="E41" t="n">
-        <v>1260.259389316616</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="F41" t="n">
-        <v>843.3649508465935</v>
+        <v>457.2661660141497</v>
       </c>
       <c r="G41" t="n">
-        <v>431.7663584191843</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="H41" t="n">
-        <v>123.7022931757087</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="I41" t="n">
         <v>45.66757358674061</v>
@@ -7417,22 +7417,22 @@
         <v>874.4221955429014</v>
       </c>
       <c r="L41" t="n">
-        <v>1439.558418678816</v>
+        <v>964.6311238279628</v>
       </c>
       <c r="M41" t="n">
-        <v>1953.080285944652</v>
+        <v>1085.591072283412</v>
       </c>
       <c r="N41" t="n">
-        <v>2078.996468272084</v>
+        <v>1526.451606931181</v>
       </c>
       <c r="O41" t="n">
-        <v>2189.227628870479</v>
+        <v>1636.682767529576</v>
       </c>
       <c r="P41" t="n">
-        <v>2260.881723594855</v>
+        <v>2201.818990665491</v>
       </c>
       <c r="Q41" t="n">
-        <v>2283.37867933703</v>
+        <v>2224.315946407667</v>
       </c>
       <c r="R41" t="n">
         <v>2283.37867933703</v>
@@ -7441,22 +7441,22 @@
         <v>2283.37867933703</v>
       </c>
       <c r="T41" t="n">
-        <v>2283.37867933703</v>
+        <v>2066.72520079923</v>
       </c>
       <c r="U41" t="n">
-        <v>2283.37867933703</v>
+        <v>1811.097604280595</v>
       </c>
       <c r="V41" t="n">
-        <v>2283.37867933703</v>
+        <v>1468.990794984114</v>
       </c>
       <c r="W41" t="n">
-        <v>2283.37867933703</v>
+        <v>1097.991759952401</v>
       </c>
       <c r="X41" t="n">
-        <v>2283.37867933703</v>
+        <v>874.1606044841719</v>
       </c>
       <c r="Y41" t="n">
-        <v>2048.284042983404</v>
+        <v>874.1606044841719</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>66.24047188392554</v>
       </c>
       <c r="I42" t="n">
-        <v>45.66757358674122</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="J42" t="n">
-        <v>45.66757358674061</v>
+        <v>236.2778811851436</v>
       </c>
       <c r="K42" t="n">
-        <v>89.41846195271799</v>
+        <v>688.4688815933474</v>
       </c>
       <c r="L42" t="n">
-        <v>178.356582306597</v>
+        <v>1253.605104729263</v>
       </c>
       <c r="M42" t="n">
-        <v>743.4928054425121</v>
+        <v>1818.741327865178</v>
       </c>
       <c r="N42" t="n">
-        <v>1308.629028578427</v>
+        <v>1947.555432292474</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.765251714342</v>
+        <v>2050.952305086296</v>
       </c>
       <c r="P42" t="n">
-        <v>2241.267026109737</v>
+        <v>2121.370918074535</v>
       </c>
       <c r="Q42" t="n">
-        <v>2255.892526353958</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="R42" t="n">
         <v>2283.37867933703</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>439.2845752076382</v>
+        <v>356.8594988250234</v>
       </c>
       <c r="C43" t="n">
-        <v>439.2845752076382</v>
+        <v>356.8594988250234</v>
       </c>
       <c r="D43" t="n">
-        <v>283.6514621101529</v>
+        <v>201.2263857275381</v>
       </c>
       <c r="E43" t="n">
-        <v>283.6514621101529</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="F43" t="n">
-        <v>283.6514621101529</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="G43" t="n">
-        <v>157.6620799890192</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="H43" t="n">
-        <v>157.6620799890192</v>
+        <v>45.66757358674061</v>
       </c>
       <c r="I43" t="n">
         <v>45.66757358674061</v>
@@ -7596,25 +7596,25 @@
         <v>1506.716022930246</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.716022930246</v>
+        <v>1316.127431448815</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.994843502199</v>
+        <v>1316.127431448815</v>
       </c>
       <c r="U43" t="n">
-        <v>988.5943224556363</v>
+        <v>1030.726910402253</v>
       </c>
       <c r="V43" t="n">
-        <v>722.6149772764605</v>
+        <v>764.7475652230768</v>
       </c>
       <c r="W43" t="n">
-        <v>439.2845752076382</v>
+        <v>542.0675175163246</v>
       </c>
       <c r="X43" t="n">
-        <v>439.2845752076382</v>
+        <v>542.0675175163246</v>
       </c>
       <c r="Y43" t="n">
-        <v>439.2845752076382</v>
+        <v>542.0675175163246</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>438.84307508381</v>
+        <v>1241.178642337165</v>
       </c>
       <c r="C44" t="n">
-        <v>45.66757358674061</v>
+        <v>848.0031408400951</v>
       </c>
       <c r="D44" t="n">
-        <v>45.66757358674061</v>
+        <v>462.5620120567629</v>
       </c>
       <c r="E44" t="n">
-        <v>45.66757358674061</v>
+        <v>462.5620120567629</v>
       </c>
       <c r="F44" t="n">
         <v>45.66757358674061</v>
@@ -7648,28 +7648,28 @@
         <v>45.66757358674061</v>
       </c>
       <c r="J44" t="n">
-        <v>320.4318810027431</v>
+        <v>59.27906853099235</v>
       </c>
       <c r="K44" t="n">
-        <v>874.4221955429014</v>
+        <v>112.6592078962439</v>
       </c>
       <c r="L44" t="n">
-        <v>964.6311238279628</v>
+        <v>677.7954310321591</v>
       </c>
       <c r="M44" t="n">
-        <v>1085.591072283412</v>
+        <v>1242.931654168074</v>
       </c>
       <c r="N44" t="n">
-        <v>1211.507254610845</v>
+        <v>1526.451606931181</v>
       </c>
       <c r="O44" t="n">
-        <v>1367.846228883783</v>
+        <v>1636.682767529576</v>
       </c>
       <c r="P44" t="n">
-        <v>1932.982452019698</v>
+        <v>2201.818990665491</v>
       </c>
       <c r="Q44" t="n">
-        <v>2283.37867933703</v>
+        <v>2224.315946407667</v>
       </c>
       <c r="R44" t="n">
         <v>2283.37867933703</v>
@@ -7681,19 +7681,19 @@
         <v>2283.37867933703</v>
       </c>
       <c r="U44" t="n">
-        <v>2283.37867933703</v>
+        <v>2027.751082818396</v>
       </c>
       <c r="V44" t="n">
-        <v>1996.280169973261</v>
+        <v>2027.751082818396</v>
       </c>
       <c r="W44" t="n">
-        <v>1625.281134941549</v>
+        <v>2027.751082818396</v>
       </c>
       <c r="X44" t="n">
-        <v>1235.828529874606</v>
+        <v>1638.298477751453</v>
       </c>
       <c r="Y44" t="n">
-        <v>839.3378207952069</v>
+        <v>1241.807768672054</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>45.66757358674061</v>
       </c>
       <c r="K45" t="n">
-        <v>497.8585739949444</v>
+        <v>89.41846195271799</v>
       </c>
       <c r="L45" t="n">
-        <v>1005.991617008794</v>
+        <v>502.9258966968262</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.360172833616</v>
+        <v>1068.062119832741</v>
       </c>
       <c r="N45" t="n">
-        <v>1251.174277260913</v>
+        <v>1633.198342968656</v>
       </c>
       <c r="O45" t="n">
-        <v>1354.571150054735</v>
+        <v>2198.334566104571</v>
       </c>
       <c r="P45" t="n">
-        <v>1916.823662930492</v>
+        <v>2268.75317909281</v>
       </c>
       <c r="Q45" t="n">
-        <v>2255.892526353958</v>
+        <v>2283.37867933703</v>
       </c>
       <c r="R45" t="n">
         <v>2283.37867933703</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>531.6377413648609</v>
+        <v>766.0801955143627</v>
       </c>
       <c r="C46" t="n">
-        <v>361.4326234308501</v>
+        <v>595.8750775803519</v>
       </c>
       <c r="D46" t="n">
-        <v>205.7995103333648</v>
+        <v>464.2284398340477</v>
       </c>
       <c r="E46" t="n">
-        <v>205.7995103333648</v>
+        <v>464.2284398340477</v>
       </c>
       <c r="F46" t="n">
-        <v>205.7995103333648</v>
+        <v>306.9025050470206</v>
       </c>
       <c r="G46" t="n">
-        <v>45.66757358674061</v>
+        <v>306.9025050470206</v>
       </c>
       <c r="H46" t="n">
-        <v>45.66757358674061</v>
+        <v>157.6620799890192</v>
       </c>
       <c r="I46" t="n">
         <v>45.66757358674061</v>
@@ -7833,25 +7833,25 @@
         <v>1599.069189087468</v>
       </c>
       <c r="S46" t="n">
-        <v>1599.069189087468</v>
+        <v>1408.480597606037</v>
       </c>
       <c r="T46" t="n">
-        <v>1366.348009659421</v>
+        <v>1408.480597606037</v>
       </c>
       <c r="U46" t="n">
-        <v>1080.947488612859</v>
+        <v>1408.480597606037</v>
       </c>
       <c r="V46" t="n">
-        <v>814.9681434336832</v>
+        <v>1408.480597606037</v>
       </c>
       <c r="W46" t="n">
-        <v>531.6377413648609</v>
+        <v>1408.480597606037</v>
       </c>
       <c r="X46" t="n">
-        <v>531.6377413648609</v>
+        <v>1174.400275389021</v>
       </c>
       <c r="Y46" t="n">
-        <v>531.6377413648609</v>
+        <v>951.288214205664</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>130.4053320276681</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>155.7838972645594</v>
       </c>
       <c r="L2" t="n">
-        <v>165.9736638158137</v>
+        <v>165.459502438629</v>
       </c>
       <c r="M2" t="n">
         <v>162.4505456830493</v>
@@ -7999,7 +7999,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.7100311265294</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,7 +8060,7 @@
         <v>95.16995141865534</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>101.8082680414706</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -8075,7 +8075,7 @@
         <v>105.4130529742109</v>
       </c>
       <c r="P3" t="n">
-        <v>99.29469752745193</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>103.713647241236</v>
@@ -8142,22 +8142,22 @@
         <v>96.58411189616999</v>
       </c>
       <c r="L4" t="n">
-        <v>99.88637229094216</v>
+        <v>100.4005336681269</v>
       </c>
       <c r="M4" t="n">
-        <v>103.0272536512653</v>
+        <v>99.05632826392807</v>
       </c>
       <c r="N4" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>102.7222440790198</v>
       </c>
       <c r="P4" t="n">
-        <v>102.2486967172679</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>155.7838972645594</v>
       </c>
       <c r="L5" t="n">
-        <v>165.9736638158137</v>
+        <v>165.459502438629</v>
       </c>
       <c r="M5" t="n">
-        <v>161.9363843058645</v>
+        <v>162.4505456830493</v>
       </c>
       <c r="N5" t="n">
-        <v>161.8439854231061</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>162.2893315094184</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>95.16995141865534</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>102.3224294186553</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>105.1126161346339</v>
+        <v>104.5984547574492</v>
       </c>
       <c r="N6" t="n">
-        <v>98.09760693948866</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>105.4130529742109</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>99.29469752745193</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>103.713647241236</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8376,25 +8376,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>92.61318650883278</v>
+        <v>96.58411189616999</v>
       </c>
       <c r="L7" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M7" t="n">
-        <v>103.0272536512653</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N7" t="n">
         <v>95.72109798772357</v>
       </c>
       <c r="O7" t="n">
-        <v>89.9967499936978</v>
+        <v>102.2080827018351</v>
       </c>
       <c r="P7" t="n">
         <v>102.2486967172679</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>363.7280257865542</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>379.0794664759352</v>
+        <v>266.9255203461039</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,19 +8534,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
         <v>198.7991868589244</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O9" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8695,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>479.7245402533873</v>
       </c>
       <c r="M11" t="n">
-        <v>351.6819125832058</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>443.6566068772549</v>
+        <v>443.6566068772548</v>
       </c>
       <c r="O11" t="n">
-        <v>459.5000631692124</v>
+        <v>459.5000631692123</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>203.1687577592696</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,31 +8768,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>300.08400142137</v>
+        <v>258.6573414592317</v>
       </c>
       <c r="M12" t="n">
-        <v>453.3006740516086</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>440.7294128369883</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>466.4033841839326</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>43.25001401366779</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>234.2303942950149</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>448.6629037176419</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>443.6566068772549</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>459.5000631692124</v>
+        <v>46.57354916620463</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>498.4667963752922</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>42.85828881057644</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5483371805589</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>453.3006740516086</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>440.7294128369883</v>
+        <v>230.893550567239</v>
       </c>
       <c r="O15" t="n">
-        <v>466.4033841839326</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>367.368208728015</v>
+        <v>479.7245402533873</v>
       </c>
       <c r="M17" t="n">
-        <v>448.6629037176419</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>459.5000631692123</v>
       </c>
       <c r="P17" t="n">
-        <v>498.4667963752923</v>
+        <v>383.0346449680894</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.85828881057644</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>481.0081846283192</v>
+        <v>92.21073525123124</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>440.7294128369883</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>26.25732731303772</v>
+        <v>466.4033841839325</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.25001401366779</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>479.7245402533874</v>
+        <v>85.54028237228459</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>443.6566068772549</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>459.5000631692123</v>
       </c>
       <c r="P20" t="n">
-        <v>391.1167616903068</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>327.8477923133623</v>
+        <v>481.008184628319</v>
       </c>
       <c r="M21" t="n">
-        <v>453.3006740516086</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>440.7294128369883</v>
+        <v>274.4510759092146</v>
       </c>
       <c r="O21" t="n">
-        <v>466.4033841839326</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>43.25001401366779</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>443.7040805059539</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
@@ -9658,7 +9658,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>5.457902655951816</v>
       </c>
       <c r="R23" t="n">
         <v>42.85828881057644</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>258.6573414592318</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>214.0072599599484</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>43.25001401366779</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>69.86621968213865</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>158.2476588410026</v>
       </c>
       <c r="P26" t="n">
         <v>502.0059847475129</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>230.8935505672391</v>
       </c>
       <c r="O27" t="n">
-        <v>186.2434690679557</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>333.6569393505719</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10132,10 +10132,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.8608073602849</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>42.85828881057644</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>230.8935505672391</v>
       </c>
       <c r="M30" t="n">
-        <v>361.9962207365519</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>43.25001401366779</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>234.3926447330007</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>273.0844663417524</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>230.8935505672391</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>464.9794448575902</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>43.25001401366779</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>479.7245402533874</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>391.1167616903068</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>443.6566068772549</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>459.5000631692124</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>498.4667963752923</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>122.4162649036028</v>
       </c>
       <c r="R35" t="n">
-        <v>42.85828881057644</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>481.0081846283192</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>230.893550567239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>246.6872850172217</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>36.71811563257923</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>448.6629037176419</v>
+        <v>448.662903717642</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>360.1681614922903</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>42.85828881057644</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>481.0081846283192</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>453.3006740516086</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>451.1930057000432</v>
+        <v>148.8709707255302</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>43.25001401366779</v>
@@ -11065,25 +11065,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>479.7245402533874</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>396.5271907175614</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>318.12560840438</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>498.4667963752923</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.85828881057644</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>4.166350890226681</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>481.0081846283192</v>
       </c>
       <c r="M42" t="n">
         <v>453.3006740516086</v>
       </c>
       <c r="N42" t="n">
-        <v>440.7294128369883</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>466.4033841839326</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>300.0840014213702</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>148.8709707255311</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>43.25001401366779</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>479.7245402533874</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>448.662903717642</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>159.1957277128024</v>
       </c>
       <c r="O44" t="n">
-        <v>46.57354916620508</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>498.4667963752923</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.85828881057644</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>4.166350890226681</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>423.4292148080506</v>
+        <v>327.8477923133627</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>453.3006740516086</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>440.7294128369883</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>466.4033841839326</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>43.25001401366779</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>366.8097328562492</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.482606503135</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.9834245910408</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.071320553448</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>40.20621566322194</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I13" t="n">
         <v>110.8745613382558</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V13" t="n">
-        <v>112.6267947165046</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>116.5841851510736</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>96.34793612902035</v>
       </c>
       <c r="G14" t="n">
         <v>407.482606503135</v>
       </c>
       <c r="H14" t="n">
-        <v>304.9834245910408</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>77.2543723930784</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.5614868812183</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.071320553448</v>
@@ -23560,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>159.7666147684163</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3825480931102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.11658114692011</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.3939676337664</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>271.4650443742977</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>77.2543723930784</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T17" t="n">
-        <v>111.3047406435502</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.071320553448</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>57.61082519003357</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8768999471553</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>147.7480208074214</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S19" t="n">
-        <v>188.6827055666165</v>
+        <v>124.9344327564482</v>
       </c>
       <c r="T19" t="n">
         <v>230.3939676337664</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.95520303597402</v>
+        <v>345.6200807291187</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.482606503135</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.9834245910408</v>
       </c>
       <c r="I20" t="n">
         <v>77.2543723930784</v>
@@ -24022,22 +24022,22 @@
         <v>129.5614868812183</v>
       </c>
       <c r="T20" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.071320553448</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>66.38949833695204</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H22" t="n">
         <v>147.7480208074214</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S22" t="n">
-        <v>188.6827055666165</v>
+        <v>59.43124472533648</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>204.3473343779605</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>51.54523344898956</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.49433042886052</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24375,13 +24375,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8768999471553</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.8745613382558</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>155.7955196719549</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>69.66168594208</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>261.4035163024056</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>77.2543723930784</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24618,7 +24618,7 @@
         <v>165.8768999471553</v>
       </c>
       <c r="H28" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.8745613382558</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.75058568269878</v>
+        <v>141.8724259562266</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>46.91657254998285</v>
       </c>
       <c r="G29" t="n">
-        <v>390.9650031836225</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>21.01145358659653</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>79.17701907350505</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H31" t="n">
         <v>147.7480208074214</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24934,7 +24934,7 @@
         <v>407.482606503135</v>
       </c>
       <c r="H32" t="n">
-        <v>304.9834245910408</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>77.2543723930784</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T32" t="n">
-        <v>108.8209328739439</v>
+        <v>31.17155003031999</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.071320553448</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8768999471553</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.8745613382558</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.3917545489424</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>102.5025702085061</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.482606503135</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>304.9834245910408</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.071320553448</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>167.0663902963465</v>
       </c>
       <c r="Y35" t="n">
-        <v>278.5699174694149</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.8768999471553</v>
       </c>
       <c r="H37" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>188.6827055666165</v>
       </c>
       <c r="T37" t="n">
-        <v>137.1972014919676</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>177.2265783437607</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>18.88619310786584</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>407.482606503135</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.9834245910408</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>77.2543723930784</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>129.5614868812183</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.4869437524227</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>345.9680896045871</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.7480208074214</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>91.42963449565048</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>188.6827055666165</v>
       </c>
       <c r="T40" t="n">
-        <v>54.26890450195961</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5465158360966</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>58.00300503142623</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.9834245910408</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>77.2543723930784</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>129.5614868812183</v>
       </c>
       <c r="T41" t="n">
-        <v>214.4869437524227</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.071320553448</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>163.9652351027269</v>
       </c>
       <c r="Y41" t="n">
-        <v>159.7821119985144</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>41.14741164723294</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H43" t="n">
         <v>147.7480208074214</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.8745613382558</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>188.6827055666165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>60.04385081844956</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>395.8669631827422</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>407.482606503135</v>
@@ -25921,13 +25921,13 @@
         <v>214.4869437524227</v>
       </c>
       <c r="U44" t="n">
-        <v>253.071320553448</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>54.45821693338536</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.74661059766922</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.346282567997349</v>
+        <v>165.8768999471553</v>
       </c>
       <c r="H46" t="n">
-        <v>147.7480208074214</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.8745613382558</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>91.42963449565048</v>
       </c>
       <c r="S46" t="n">
-        <v>188.6827055666165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.3939676337664</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5465158360966</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567489.4639604544</v>
+        <v>567489.4639604546</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567489.4639604544</v>
+        <v>567489.4639604543</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>802125.3581306894</v>
+        <v>802125.3581306891</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796894.7624165617</v>
+        <v>796894.7624165616</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>707603.8501319099</v>
+        <v>707603.8501319098</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>567489.4639604544</v>
+        <v>567489.4639604542</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567489.4639604542</v>
+        <v>567489.4639604543</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>567489.4639604546</v>
+        <v>567489.4639604543</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.0986613989</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="C2" t="n">
         <v>504930.0986613989</v>
@@ -26322,40 +26322,40 @@
         <v>504930.0986613992</v>
       </c>
       <c r="E2" t="n">
-        <v>333091.7756609639</v>
+        <v>333091.7756609638</v>
       </c>
       <c r="F2" t="n">
-        <v>333091.7756609639</v>
+        <v>333091.7756609637</v>
       </c>
       <c r="G2" t="n">
-        <v>333091.7756609638</v>
+        <v>333091.7756609635</v>
       </c>
       <c r="H2" t="n">
         <v>333091.7756609637</v>
       </c>
       <c r="I2" t="n">
-        <v>456530.1858452459</v>
+        <v>456530.1858452457</v>
       </c>
       <c r="J2" t="n">
-        <v>453778.448215537</v>
+        <v>453778.4482155371</v>
       </c>
       <c r="K2" t="n">
-        <v>453778.4482155368</v>
+        <v>453778.4482155369</v>
       </c>
       <c r="L2" t="n">
-        <v>406803.8440301907</v>
+        <v>406803.8440301905</v>
       </c>
       <c r="M2" t="n">
+        <v>333091.7756609636</v>
+      </c>
+      <c r="N2" t="n">
+        <v>333091.7756609636</v>
+      </c>
+      <c r="O2" t="n">
         <v>333091.7756609637</v>
       </c>
-      <c r="N2" t="n">
-        <v>333091.775660964</v>
-      </c>
-      <c r="O2" t="n">
-        <v>333091.7756609638</v>
-      </c>
       <c r="P2" t="n">
-        <v>333091.7756609636</v>
+        <v>333091.7756609639</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4264.605754355376</v>
+        <v>4264.605754355363</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>67479.85747944032</v>
       </c>
       <c r="E3" t="n">
-        <v>411246.9586932328</v>
+        <v>411246.9586932327</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151799.5854469957</v>
+        <v>151799.5854469958</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>329649.3696271531</v>
       </c>
       <c r="E4" t="n">
-        <v>68321.92530790812</v>
+        <v>68321.92530790811</v>
       </c>
       <c r="F4" t="n">
         <v>68321.92530790811</v>
       </c>
       <c r="G4" t="n">
-        <v>68321.92530790812</v>
+        <v>68321.92530790811</v>
       </c>
       <c r="H4" t="n">
         <v>68321.92530790812</v>
       </c>
       <c r="I4" t="n">
-        <v>118070.0857229591</v>
+        <v>118070.085722959</v>
       </c>
       <c r="J4" t="n">
         <v>116961.0801482881</v>
@@ -26447,19 +26447,19 @@
         <v>116961.0801482881</v>
       </c>
       <c r="L4" t="n">
-        <v>98029.37047252874</v>
+        <v>98029.37047252868</v>
       </c>
       <c r="M4" t="n">
+        <v>68321.92530790812</v>
+      </c>
+      <c r="N4" t="n">
         <v>68321.92530790811</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68321.92530790812</v>
       </c>
       <c r="O4" t="n">
         <v>68321.92530790812</v>
       </c>
       <c r="P4" t="n">
-        <v>68321.92530790812</v>
+        <v>68321.92530790811</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>47609.22728839959</v>
       </c>
       <c r="E5" t="n">
-        <v>43104.60063920131</v>
+        <v>43104.60063920129</v>
       </c>
       <c r="F5" t="n">
-        <v>43104.60063920131</v>
+        <v>43104.60063920129</v>
       </c>
       <c r="G5" t="n">
-        <v>43104.60063920131</v>
+        <v>43104.60063920129</v>
       </c>
       <c r="H5" t="n">
-        <v>43104.60063920131</v>
+        <v>43104.60063920129</v>
       </c>
       <c r="I5" t="n">
-        <v>77811.95656512419</v>
+        <v>77811.95656512416</v>
       </c>
       <c r="J5" t="n">
-        <v>77038.24652473661</v>
+        <v>77038.24652473658</v>
       </c>
       <c r="K5" t="n">
-        <v>77038.24652473661</v>
+        <v>77038.24652473658</v>
       </c>
       <c r="L5" t="n">
-        <v>63830.32927672459</v>
+        <v>63830.32927672456</v>
       </c>
       <c r="M5" t="n">
         <v>43104.60063920131</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101085.978712646</v>
+        <v>101085.9787126462</v>
       </c>
       <c r="C6" t="n">
         <v>105350.5844670014</v>
       </c>
       <c r="D6" t="n">
-        <v>60191.64426640619</v>
+        <v>60191.64426640613</v>
       </c>
       <c r="E6" t="n">
-        <v>-189581.7089793783</v>
+        <v>-190195.4172758084</v>
       </c>
       <c r="F6" t="n">
-        <v>221665.2497138545</v>
+        <v>221051.5414174242</v>
       </c>
       <c r="G6" t="n">
-        <v>221665.2497138545</v>
+        <v>221051.541417424</v>
       </c>
       <c r="H6" t="n">
-        <v>221665.2497138543</v>
+        <v>221051.5414174242</v>
       </c>
       <c r="I6" t="n">
-        <v>108848.558110167</v>
+        <v>108675.7012786805</v>
       </c>
       <c r="J6" t="n">
-        <v>259779.1215425123</v>
+        <v>259596.4370766343</v>
       </c>
       <c r="K6" t="n">
-        <v>259779.1215425121</v>
+        <v>259596.4370766342</v>
       </c>
       <c r="L6" t="n">
-        <v>244944.1442809374</v>
+        <v>244593.6933715401</v>
       </c>
       <c r="M6" t="n">
-        <v>221665.2497138543</v>
+        <v>221051.541417424</v>
       </c>
       <c r="N6" t="n">
-        <v>221665.2497138546</v>
+        <v>221051.5414174241</v>
       </c>
       <c r="O6" t="n">
-        <v>221665.2497138545</v>
+        <v>221051.5414174242</v>
       </c>
       <c r="P6" t="n">
-        <v>221665.2497138542</v>
+        <v>221051.5414174244</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="E4" t="n">
-        <v>570.8446698342576</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="F4" t="n">
-        <v>570.8446698342576</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="G4" t="n">
-        <v>570.8446698342576</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="H4" t="n">
-        <v>570.8446698342576</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="I4" t="n">
         <v>1141.689339668515</v>
@@ -26819,7 +26819,7 @@
         <v>1128.963845583193</v>
       </c>
       <c r="L4" t="n">
-        <v>911.7283645303643</v>
+        <v>911.7283645303638</v>
       </c>
       <c r="M4" t="n">
         <v>570.8446698342576</v>
@@ -27020,7 +27020,7 @@
         <v>217.2354810528292</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8836946961066</v>
+        <v>340.8836946961063</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>570.8446698342577</v>
+        <v>570.8446698342582</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>217.2354810528292</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8836946961066</v>
+        <v>340.8836946961063</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>376.5182523967767</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.3056338715548</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>124.2282516531378</v>
+        <v>134.776258504985</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>153.6398043180083</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27444,7 +27444,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>372.8325849309517</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27469,13 +27469,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>110.4619939703775</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>74.68894815008308</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9523785855941</v>
+        <v>12.46925748056448</v>
       </c>
       <c r="S3" t="n">
-        <v>120.8558762438078</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>164.005358492729</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -27520,13 +27520,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>215.090579322724</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>164.7955806699258</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>155.7775726693487</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>142.7946088290379</v>
+        <v>141.2777299340675</v>
       </c>
       <c r="F4" t="n">
-        <v>143.0271813538348</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>141.198271442799</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>119.0379870239709</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>111.4533642833972</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27602,7 +27602,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>219.0140249095247</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>394.3123110208081</v>
+        <v>383.7643041689609</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>397.8225127665252</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.88749049201128</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27672,13 +27672,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>240.4697081844254</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>354.5635505960734</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27706,16 +27706,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>110.4619939703775</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>107.6506045585026</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>74.68894815008308</v>
+        <v>76.20582704505347</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9523785855941</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>120.8558762438078</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -27763,7 +27763,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>164.7955806699258</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>157.294451564319</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27785,19 +27785,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>143.0271813538348</v>
       </c>
       <c r="G7" t="n">
         <v>153.8460192762269</v>
       </c>
       <c r="H7" t="n">
-        <v>141.198271442799</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1532461230966</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>269.8589097551961</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27861,7 +27861,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>149.9267662426948</v>
       </c>
       <c r="U8" t="n">
-        <v>246.9689277260559</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,7 +27918,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>149.1476881355087</v>
@@ -27943,13 +27943,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>91.6403412411984</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>48.89338144820752</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>96.13385127582384</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>177.5210747552478</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297046</v>
+        <v>43.43753910946768</v>
       </c>
       <c r="U10" t="n">
-        <v>104.3776275267759</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -34701,10 +34701,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L2" t="n">
-        <v>12.725494085322</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="M2" t="n">
         <v>12.725494085322</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="P3" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>12.725494085322</v>
@@ -34862,22 +34862,22 @@
         <v>12.725494085322</v>
       </c>
       <c r="L4" t="n">
-        <v>12.21133270813727</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M4" t="n">
+        <v>8.754568697984791</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L5" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="M5" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="M5" t="n">
-        <v>12.21133270813727</v>
-      </c>
       <c r="N5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="P6" t="n">
-        <v>12.21133270813727</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.754568697984791</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="P7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="O8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>106.4120648096125</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>53.91933269217333</v>
       </c>
       <c r="L11" t="n">
-        <v>91.12012958087016</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="M11" t="n">
-        <v>473.8636786998214</v>
+        <v>122.1817661166156</v>
       </c>
       <c r="N11" t="n">
-        <v>570.8446698342576</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="O11" t="n">
-        <v>570.8446698342576</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="P11" t="n">
         <v>72.3778734589653</v>
       </c>
       <c r="Q11" t="n">
-        <v>353.9355831488208</v>
+        <v>225.8929554786391</v>
       </c>
       <c r="R11" t="n">
         <v>59.65932619127616</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K12" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L12" t="n">
-        <v>389.9204866273085</v>
+        <v>348.4938266651702</v>
       </c>
       <c r="M12" t="n">
-        <v>570.8446698342576</v>
+        <v>117.543995782649</v>
       </c>
       <c r="N12" t="n">
-        <v>570.8446698342576</v>
+        <v>130.1152569972693</v>
       </c>
       <c r="O12" t="n">
-        <v>570.8446698342576</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P12" t="n">
-        <v>71.12991210933203</v>
+        <v>567.931831187634</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R12" t="n">
-        <v>27.76379089199269</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.74898479217347</v>
+        <v>277.5397044606086</v>
       </c>
       <c r="K14" t="n">
-        <v>53.91933269217333</v>
+        <v>559.5861763031903</v>
       </c>
       <c r="L14" t="n">
-        <v>325.3505238758851</v>
+        <v>91.12012958087016</v>
       </c>
       <c r="M14" t="n">
-        <v>570.8446698342576</v>
+        <v>122.1817661166156</v>
       </c>
       <c r="N14" t="n">
-        <v>570.8446698342576</v>
+        <v>127.1880629570027</v>
       </c>
       <c r="O14" t="n">
-        <v>570.8446698342576</v>
+        <v>157.9181558312498</v>
       </c>
       <c r="P14" t="n">
-        <v>72.3778734589653</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.7241977193695</v>
+        <v>353.9355831488208</v>
       </c>
       <c r="R14" t="n">
-        <v>59.65932619127616</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>192.5356642408111</v>
       </c>
       <c r="K15" t="n">
-        <v>151.7411537118492</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L15" t="n">
         <v>89.83648520593844</v>
       </c>
       <c r="M15" t="n">
-        <v>570.8446698342576</v>
+        <v>117.543995782649</v>
       </c>
       <c r="N15" t="n">
-        <v>570.8446698342576</v>
+        <v>361.0088075645083</v>
       </c>
       <c r="O15" t="n">
-        <v>570.8446698342576</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P15" t="n">
-        <v>71.12991210933203</v>
+        <v>567.931831187634</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R15" t="n">
         <v>27.76379089199269</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.74898479217347</v>
+        <v>277.5397044606086</v>
       </c>
       <c r="K17" t="n">
         <v>53.91933269217333</v>
       </c>
       <c r="L17" t="n">
-        <v>458.4883383088851</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="M17" t="n">
-        <v>570.8446698342576</v>
+        <v>122.1817661166156</v>
       </c>
       <c r="N17" t="n">
         <v>127.1880629570027</v>
       </c>
       <c r="O17" t="n">
-        <v>111.3446066650452</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="P17" t="n">
-        <v>570.8446698342576</v>
+        <v>455.4125184270547</v>
       </c>
       <c r="Q17" t="n">
-        <v>353.9355831488208</v>
+        <v>22.7241977193695</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.65932619127616</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K18" t="n">
         <v>456.7585862709129</v>
       </c>
       <c r="L18" t="n">
-        <v>570.8446698342576</v>
+        <v>182.0472204571697</v>
       </c>
       <c r="M18" t="n">
         <v>117.543995782649</v>
       </c>
       <c r="N18" t="n">
-        <v>570.8446698342576</v>
+        <v>130.1152569972693</v>
       </c>
       <c r="O18" t="n">
-        <v>130.6986129633627</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="P18" t="n">
-        <v>71.12991210933203</v>
+        <v>567.931831187634</v>
       </c>
       <c r="Q18" t="n">
-        <v>342.493801437844</v>
+        <v>14.77323256991937</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>27.76379089199269</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.74898479217347</v>
+        <v>277.5397044606086</v>
       </c>
       <c r="K20" t="n">
-        <v>53.91933269217333</v>
+        <v>559.5861763031903</v>
       </c>
       <c r="L20" t="n">
-        <v>570.8446698342576</v>
+        <v>176.6604119531547</v>
       </c>
       <c r="M20" t="n">
         <v>122.1817661166156</v>
       </c>
       <c r="N20" t="n">
-        <v>570.8446698342576</v>
+        <v>127.1880629570027</v>
       </c>
       <c r="O20" t="n">
-        <v>111.3446066650452</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="P20" t="n">
-        <v>463.4946351492721</v>
+        <v>72.3778734589653</v>
       </c>
       <c r="Q20" t="n">
         <v>353.9355831488208</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K21" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L21" t="n">
-        <v>417.6842775193007</v>
+        <v>570.8446698342575</v>
       </c>
       <c r="M21" t="n">
-        <v>570.8446698342576</v>
+        <v>117.543995782649</v>
       </c>
       <c r="N21" t="n">
-        <v>570.8446698342576</v>
+        <v>404.5663329064839</v>
       </c>
       <c r="O21" t="n">
-        <v>570.8446698342576</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P21" t="n">
         <v>71.12991210933203</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13.74898479217347</v>
+        <v>277.5397044606086</v>
       </c>
       <c r="K23" t="n">
-        <v>497.6234131981272</v>
+        <v>559.5861763031903</v>
       </c>
       <c r="L23" t="n">
         <v>742.6716242795728</v>
@@ -36378,7 +36378,7 @@
         <v>574.3838582064782</v>
       </c>
       <c r="Q23" t="n">
-        <v>353.9355831488208</v>
+        <v>28.18210037532132</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K24" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L24" t="n">
-        <v>89.83648520593844</v>
+        <v>348.4938266651703</v>
       </c>
       <c r="M24" t="n">
-        <v>844.043895232649</v>
+        <v>117.543995782649</v>
       </c>
       <c r="N24" t="n">
-        <v>877.8893609732129</v>
+        <v>130.1152569972693</v>
       </c>
       <c r="O24" t="n">
-        <v>318.4485456102734</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P24" t="n">
-        <v>71.12991210933203</v>
+        <v>567.931831187634</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>277.5397044606086</v>
       </c>
       <c r="K26" t="n">
-        <v>123.785552374312</v>
+        <v>559.5861763031903</v>
       </c>
       <c r="L26" t="n">
         <v>742.6716242795728</v>
@@ -36609,7 +36609,7 @@
         <v>809.4492650396979</v>
       </c>
       <c r="O26" t="n">
-        <v>705.3928894349278</v>
+        <v>269.5922655060479</v>
       </c>
       <c r="P26" t="n">
         <v>574.3838582064782</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K27" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L27" t="n">
         <v>89.83648520593844</v>
       </c>
       <c r="M27" t="n">
-        <v>844.043895232649</v>
+        <v>117.543995782649</v>
       </c>
       <c r="N27" t="n">
-        <v>877.8893609732129</v>
+        <v>361.0088075645084</v>
       </c>
       <c r="O27" t="n">
-        <v>290.6847547182807</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P27" t="n">
-        <v>71.12991210933203</v>
+        <v>567.931831187634</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R27" t="n">
         <v>27.76379089199269</v>
@@ -36834,7 +36834,7 @@
         <v>13.74898479217347</v>
       </c>
       <c r="K29" t="n">
-        <v>559.5861763031903</v>
+        <v>387.5762720427452</v>
       </c>
       <c r="L29" t="n">
         <v>742.6716242795728</v>
@@ -36852,10 +36852,10 @@
         <v>574.3838582064782</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.5850050796544</v>
+        <v>353.9355831488208</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>59.65932619127616</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K30" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L30" t="n">
-        <v>668.3474238793347</v>
+        <v>320.7300357731776</v>
       </c>
       <c r="M30" t="n">
-        <v>479.540216519201</v>
+        <v>117.543995782649</v>
       </c>
       <c r="N30" t="n">
-        <v>877.8893609732129</v>
+        <v>130.1152569972693</v>
       </c>
       <c r="O30" t="n">
         <v>104.441285650325</v>
       </c>
       <c r="P30" t="n">
-        <v>71.12991210933203</v>
+        <v>567.931831187634</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27.76379089199269</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>13.74898479217347</v>
       </c>
       <c r="K32" t="n">
-        <v>559.5861763031903</v>
+        <v>288.311977425174</v>
       </c>
       <c r="L32" t="n">
-        <v>91.12012958087016</v>
+        <v>742.6716242795728</v>
       </c>
       <c r="M32" t="n">
-        <v>823.4228783654344</v>
+        <v>122.1817661166156</v>
       </c>
       <c r="N32" t="n">
         <v>809.4492650396979</v>
       </c>
       <c r="O32" t="n">
-        <v>384.4290730067976</v>
+        <v>705.3928894349278</v>
       </c>
       <c r="P32" t="n">
         <v>574.3838582064782</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K33" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L33" t="n">
         <v>89.83648520593844</v>
       </c>
       <c r="M33" t="n">
-        <v>844.043895232649</v>
+        <v>348.4375463498881</v>
       </c>
       <c r="N33" t="n">
         <v>130.1152569972693</v>
       </c>
       <c r="O33" t="n">
-        <v>569.4207305079152</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P33" t="n">
         <v>567.931831187634</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.77323256991937</v>
+        <v>342.493801437844</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>27.76379089199269</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>13.74898479217347</v>
       </c>
       <c r="K35" t="n">
-        <v>53.91933269217333</v>
+        <v>559.5861763031903</v>
       </c>
       <c r="L35" t="n">
+        <v>91.12012958087016</v>
+      </c>
+      <c r="M35" t="n">
+        <v>122.1817661166156</v>
+      </c>
+      <c r="N35" t="n">
+        <v>127.1880629570027</v>
+      </c>
+      <c r="O35" t="n">
         <v>570.8446698342576</v>
       </c>
-      <c r="M35" t="n">
-        <v>513.2985278069224</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>570.8446698342576</v>
       </c>
-      <c r="O35" t="n">
-        <v>111.3446066650452</v>
-      </c>
-      <c r="P35" t="n">
-        <v>72.3778734589653</v>
-      </c>
       <c r="Q35" t="n">
-        <v>353.9355831488208</v>
+        <v>145.1404626229723</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.65932619127616</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>456.7585862709129</v>
       </c>
       <c r="L36" t="n">
-        <v>89.83648520593844</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="M36" t="n">
         <v>117.543995782649</v>
       </c>
       <c r="N36" t="n">
-        <v>361.0088075645083</v>
+        <v>130.1152569972693</v>
       </c>
       <c r="O36" t="n">
         <v>104.441285650325</v>
       </c>
       <c r="P36" t="n">
-        <v>567.931831187634</v>
+        <v>317.8171971265538</v>
       </c>
       <c r="Q36" t="n">
         <v>342.493801437844</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5397044606086</v>
+        <v>13.74898479217347</v>
       </c>
       <c r="K38" t="n">
         <v>559.5861763031903</v>
       </c>
       <c r="L38" t="n">
-        <v>127.8382452134494</v>
+        <v>91.12012958087016</v>
       </c>
       <c r="M38" t="n">
         <v>570.8446698342576</v>
@@ -37557,7 +37557,7 @@
         <v>127.1880629570027</v>
       </c>
       <c r="O38" t="n">
-        <v>111.3446066650452</v>
+        <v>471.5127681573355</v>
       </c>
       <c r="P38" t="n">
         <v>72.3778734589653</v>
@@ -37566,7 +37566,7 @@
         <v>353.9355831488208</v>
       </c>
       <c r="R38" t="n">
-        <v>59.65932619127616</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K39" t="n">
         <v>456.7585862709129</v>
       </c>
       <c r="L39" t="n">
-        <v>89.83648520593844</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="M39" t="n">
-        <v>117.543995782649</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="N39" t="n">
         <v>130.1152569972693</v>
       </c>
       <c r="O39" t="n">
-        <v>555.6342913503682</v>
+        <v>253.3122563758552</v>
       </c>
       <c r="P39" t="n">
-        <v>567.931831187634</v>
+        <v>71.12991210933203</v>
       </c>
       <c r="Q39" t="n">
-        <v>342.493801437844</v>
+        <v>14.77323256991937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>559.5861763031903</v>
       </c>
       <c r="L41" t="n">
-        <v>570.8446698342576</v>
+        <v>91.12012958087016</v>
       </c>
       <c r="M41" t="n">
-        <v>518.708956834177</v>
+        <v>122.1817661166156</v>
       </c>
       <c r="N41" t="n">
-        <v>127.1880629570027</v>
+        <v>445.3136713613827</v>
       </c>
       <c r="O41" t="n">
         <v>111.3446066650452</v>
       </c>
       <c r="P41" t="n">
-        <v>72.3778734589653</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="Q41" t="n">
         <v>22.7241977193695</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.65932619127616</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>192.5356642408111</v>
       </c>
       <c r="K42" t="n">
-        <v>44.19281653129029</v>
+        <v>456.7585862709129</v>
       </c>
       <c r="L42" t="n">
-        <v>89.83648520593844</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="M42" t="n">
         <v>570.8446698342576</v>
       </c>
       <c r="N42" t="n">
-        <v>570.8446698342576</v>
+        <v>130.1152569972693</v>
       </c>
       <c r="O42" t="n">
-        <v>570.8446698342576</v>
+        <v>104.441285650325</v>
       </c>
       <c r="P42" t="n">
-        <v>371.2139135307022</v>
+        <v>71.12991210933203</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.77323256991937</v>
+        <v>163.6442032954504</v>
       </c>
       <c r="R42" t="n">
-        <v>27.76379089199269</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>277.5397044606086</v>
+        <v>13.74898479217347</v>
       </c>
       <c r="K44" t="n">
-        <v>559.5861763031903</v>
+        <v>53.91933269217333</v>
       </c>
       <c r="L44" t="n">
-        <v>91.12012958087016</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="M44" t="n">
-        <v>122.1817661166156</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="N44" t="n">
-        <v>127.1880629570027</v>
+        <v>286.3837906698051</v>
       </c>
       <c r="O44" t="n">
-        <v>157.9181558312503</v>
+        <v>111.3446066650452</v>
       </c>
       <c r="P44" t="n">
         <v>570.8446698342576</v>
       </c>
       <c r="Q44" t="n">
-        <v>353.9355831488208</v>
+        <v>22.7241977193695</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.65932619127616</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>456.7585862709129</v>
+        <v>44.19281653129029</v>
       </c>
       <c r="L45" t="n">
-        <v>513.2657000139891</v>
+        <v>417.6842775193012</v>
       </c>
       <c r="M45" t="n">
-        <v>117.543995782649</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="N45" t="n">
-        <v>130.1152569972693</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="O45" t="n">
-        <v>104.441285650325</v>
+        <v>570.8446698342576</v>
       </c>
       <c r="P45" t="n">
-        <v>567.931831187634</v>
+        <v>71.12991210933203</v>
       </c>
       <c r="Q45" t="n">
-        <v>342.493801437844</v>
+        <v>14.77323256991937</v>
       </c>
       <c r="R45" t="n">
-        <v>27.76379089199269</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
